--- a/ExtractData.xlsx
+++ b/ExtractData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitc\Documents\UiPath\Web Scrapingbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{062E78EA-FE18-468A-946C-EBA02F6F3C9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC757EE-72DB-45D1-BC77-628EE2C7832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11835" xr2:uid="{31679DB8-20F4-4541-B16F-25A8D2C40E98}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Description</t>
   </si>
@@ -42,106 +42,100 @@
     <t>Link</t>
   </si>
   <si>
-    <t>Apple iPhone 12 (128GB) - Blue</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0289169I1H125BE6KZA&amp;url=%2FNew-Apple-iPhone-12-128GB%2Fdp%2FB08L5TNJHG%2Fref%3Dsr_1_1_sspa%3Fcrid%3D2RANQ33UCZBYG%26keywords%3Diphone%2B12%26qid%3D1641892183%26sprefix%3Diphone%2B12%252Caps%252C446%26sr%3D8-1-spons%26psc%3D1&amp;qualifier=1641892183&amp;id=4679358428108533&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini (128GB) - Green</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A028769726XR1HVZVN0D2&amp;url=%2FNew-Apple-iPhone-Mini-128GB%2Fdp%2FB08L5VQTG9%2Fref%3Dsr_1_2_sspa%3Fcrid%3D2RANQ33UCZBYG%26keywords%3Diphone%2B12%26qid%3D1641892183%26sprefix%3Diphone%2B12%252Caps%252C446%26sr%3D8-2-spons%26psc%3D1&amp;qualifier=1641892183&amp;id=4679358428108533&amp;widgetName=sp_atf</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-128GB/dp/B08L5TNJHG/ref=sr_1_3?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-3</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (64GB) - Green</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B08L5W16HX/ref=sr_1_4?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-4</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (64GB) - Blue</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B08L5WHFT9/ref=sr_1_5?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-5</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (64GB) - (Product) RED</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B08L5TGWD1/ref=sr_1_6?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-6</t>
-  </si>
-  <si>
-    <t>Apple iPhone 13 (128GB) - Pink</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Apple-iPhone-13-128GB-Pink/dp/B09G9FPGTN/ref=sr_1_7?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-7</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 (64GB) - Purple</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B0932QYBH8/ref=sr_1_8?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-8</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini (64GB) - Purple</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-Mini-64GB/dp/B0932PTZ5V/ref=sr_1_9?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-9</t>
-  </si>
-  <si>
-    <t>New Apple iPhone 12 (64GB) - Blue with Apple 20W USB-C Power Adapter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B08Z6N9ZF3/ref=sr_1_10?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-10</t>
-  </si>
-  <si>
-    <t>New Apple iPhone 12 (64GB) - (Product) RED with Apple 20W USB-C Power Adapter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B08Z73MPX8/ref=sr_1_11?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-11</t>
-  </si>
-  <si>
-    <t>New Apple iPhone 12 (64GB) - Green with Apple 20W USB-C Power Adapter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-64GB/dp/B08Z6YKWCM/ref=sr_1_12?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-12</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini (128GB) - Black</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-Mini-128GB/dp/B08L5VG843/ref=sr_1_13?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-13</t>
-  </si>
-  <si>
-    <t>New Apple iPhone 12 Mini (128GB) - Black with Apple 20W USB-C Power Adapter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-Mini-128GB/dp/B08Z6SCHXH/ref=sr_1_14?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-14</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-Mini-128GB/dp/B08L5VQTG9/ref=sr_1_15?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-15</t>
-  </si>
-  <si>
-    <t>Apple iPhone 12 Mini (128GB) - (Product) RED</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-Mini-128GB/dp/B08L5WH99K/ref=sr_1_16?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-16</t>
-  </si>
-  <si>
-    <t>New Apple iPhone 12 (128GB) - Blue with Apple 20W USB-C Power Adapter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-12-128GB/dp/B08Z6QNWK8/ref=sr_1_17?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-17</t>
-  </si>
-  <si>
     <t>New Apple iPhone 12 Mini (128GB) - Green with Apple 20W USB-C Power Adapter</t>
   </si>
   <si>
     <t>https://www.amazon.in/New-Apple-iPhone-Mini-128GB/dp/B08Z72HXHT/ref=sr_1_18?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>Samsung Galaxy A03s (Black, 4GB RAM, 64GB Storage) with No Cost EMI/Additional Exchange Offers</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Samsung-Galaxy-Storage-Additional-Exchange/dp/B09C8FWW2H/ref=sr_1_297?crid=AJ35DUY62ZJ0&amp;keywords=iphone+12&amp;qid=1641908990&amp;sprefix=ipho%2Caps%2C595&amp;sr=8-297</t>
+  </si>
+  <si>
+    <t>Nillkin Case for OnePlus 9R One Plus 9R (1+9) R (6.55" Inch) Super Frosted Hard Back Cover PC Black Color</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Nillkin-OnePlus-Super-Frosted-Cover/dp/B094QHHWQF/ref=sr_1_298?crid=AJ35DUY62ZJ0&amp;keywords=iphone+12&amp;qid=1641908990&amp;sprefix=ipho%2Caps%2C595&amp;sr=8-298</t>
+  </si>
+  <si>
+    <t>itel A23 Pro Jio (Lake Blue, 1GB RAM, 8 GB Storage, 5'' Bright Display) (L5006C)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/itel-Storage-Bright-Display-L5006C/dp/B08T7G9HFM/ref=sr_1_299?crid=AJ35DUY62ZJ0&amp;keywords=iphone+12&amp;qid=1641908990&amp;sprefix=ipho%2Caps%2C595&amp;sr=8-299</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Inspiron 5501 Laptop|i5-1035G1|8GB DDR4|512GB SSD|Win 10 HSL|NVIDIA MX330 2GB|15.6" FHD|Backlit|Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Inspiron-i5-1035G1-Backlit/dp/B091SJFHMP/ref=sr_1_291?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-291</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5-4th Gen 14 Inch (35.56 cms) 1366x768 HD Laptop (16GB RAM/128GB SSD &amp; 1TB HDD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B099YLCD7W/ref=sr_1_292?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-292</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E5480 Intel Core i5 7th Gen. - 7300u Processor, 16 GB Ram &amp; 2TB GB SSD, 14.1 Inches Full HD Screen Notebook Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E5480/dp/B091N2WV24/ref=sr_1_293?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-293</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3510 Intel Core i3-10110U /4GB/1TB/UBUNTU/ 39.62 cm (15.6 INCH )Screen/1 Year Warranty</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-3510-i3-10110U-Warranty/dp/B08B9X82C6/ref=sr_1_289?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-289</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E6440-i5-16 GB-320 GB 14-inch Laptop (4th Gen Core i5/16GB/320GB/Windows 10/Integrated Graphics), Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-E6440-i5-16-GB-320-GB-Integrated/dp/B07LB4NZYL/ref=sr_1_290?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-290</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E7480 Intel Core i5 - 7200U Processor 7th Gen, 16 GB Ram &amp; 2TB SSD, 14.1 Inches Touch Screen (Ultra Slim &amp; Light 1.58KG) Notebook Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E7480/dp/B092S94YCP/ref=sr_1_291?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-291</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E7480 Intel Core i5 - 7200U Processor 7th Gen, 32 GB Ram &amp; 256 GB SSD, 14.1 Inches Touch Screen (Ultra Slim &amp; Light 1.58KG) Notebook Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E7480/dp/B092S8GGRG/ref=sr_1_292?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-292</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5-4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics 4400/1.9Kg,Silver) Latitude E7440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B09B52F871/ref=sr_1_295?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-295</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E6420-i5-4 GB-512 GB 14-inch Laptop (2nd Gen Core i5/4GB//Windows 7/Integrated Graphics), Greyish Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-E6420-i5-4-GB-512-GB-Integrated/dp/B07LB4XT5T/ref=sr_1_296?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-296</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E5270 Laptop (CORE I5 6TH GEN/4GB/500GB/WEBCAM/12.5'' NO TOUCH/Windows 10 Home)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-E5270-Windows/dp/B08XVV5BLP/ref=sr_1_297?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-297</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3490 8th Gen Intel Core i5-8250U 14 inches HD LED Business Laptop (4GB/1TB/Windows 10 Home Single Language/2 GB AMD Radeon Graphics, Black, 1.72 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Latitude-3490-i5-8250U-Language-Graphics/dp/B07PXLPWQM/ref=sr_1_298?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-298</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (32GB RAM /1TB HDD/Windows 10 Pro/MS Office/Intel HD Integrated Graphics/ Black/1.5Kg,Black) Latitude E5480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Integrated-Graphics-Latitude-E5480/dp/B09M4271RP/ref=sr_1_299?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-299</t>
   </si>
 </sst>
 </file>
@@ -509,146 +503,130 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>15</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>25</v>
-      </c>
-      <c r="B14" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>4</v>
       </c>
       <c r="B15" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>32</v>
-      </c>
-      <c r="B18" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>34</v>
+        <v>2</v>
       </c>
       <c r="B19" t="s">
-        <v>35</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/ExtractData.xlsx
+++ b/ExtractData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\amitc\Documents\UiPath\Web Scrapingbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFC757EE-72DB-45D1-BC77-628EE2C7832A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F5DE5D0-41D8-4F45-8318-0F7597702783}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2595" yWindow="2595" windowWidth="21600" windowHeight="11835" xr2:uid="{31679DB8-20F4-4541-B16F-25A8D2C40E98}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="632" uniqueCount="600">
   <si>
     <t>Description</t>
   </si>
@@ -42,100 +42,1798 @@
     <t>Link</t>
   </si>
   <si>
-    <t>New Apple iPhone 12 Mini (128GB) - Green with Apple 20W USB-C Power Adapter</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/New-Apple-iPhone-Mini-128GB/dp/B08Z72HXHT/ref=sr_1_18?crid=2RANQ33UCZBYG&amp;keywords=iphone+12&amp;qid=1641892183&amp;sprefix=iphone+12%2Caps%2C446&amp;sr=8-18</t>
-  </si>
-  <si>
-    <t>Samsung Galaxy A03s (Black, 4GB RAM, 64GB Storage) with No Cost EMI/Additional Exchange Offers</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Samsung-Galaxy-Storage-Additional-Exchange/dp/B09C8FWW2H/ref=sr_1_297?crid=AJ35DUY62ZJ0&amp;keywords=iphone+12&amp;qid=1641908990&amp;sprefix=ipho%2Caps%2C595&amp;sr=8-297</t>
-  </si>
-  <si>
-    <t>Nillkin Case for OnePlus 9R One Plus 9R (1+9) R (6.55" Inch) Super Frosted Hard Back Cover PC Black Color</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Nillkin-OnePlus-Super-Frosted-Cover/dp/B094QHHWQF/ref=sr_1_298?crid=AJ35DUY62ZJ0&amp;keywords=iphone+12&amp;qid=1641908990&amp;sprefix=ipho%2Caps%2C595&amp;sr=8-298</t>
-  </si>
-  <si>
-    <t>itel A23 Pro Jio (Lake Blue, 1GB RAM, 8 GB Storage, 5'' Bright Display) (L5006C)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/itel-Storage-Bright-Display-L5006C/dp/B08T7G9HFM/ref=sr_1_299?crid=AJ35DUY62ZJ0&amp;keywords=iphone+12&amp;qid=1641908990&amp;sprefix=ipho%2Caps%2C595&amp;sr=8-299</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Inspiron 5501 Laptop|i5-1035G1|8GB DDR4|512GB SSD|Win 10 HSL|NVIDIA MX330 2GB|15.6" FHD|Backlit|Silver</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Renewed-Dell-Inspiron-i5-1035G1-Backlit/dp/B091SJFHMP/ref=sr_1_291?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-291</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Intel Core i5-4th Gen 14 Inch (35.56 cms) 1366x768 HD Laptop (16GB RAM/128GB SSD &amp; 1TB HDD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B099YLCD7W/ref=sr_1_292?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-292</t>
+    <t>Dell 14 (2021) i7-1195G7 2in1 Touch Screen Laptop, 16GB, 512GB SSD, Win 10 + MS Office, 14.0" (35.56 cms) FHD Display, Backlit KB, FPR + Active Pen, Platinum Silver (Inspiron 5410, D560596WIN9S)</t>
+  </si>
+  <si>
+    <t>undefinedhttps://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A04347111NAOF9U56650L&amp;url=%2FDell-i7-1195G7-Platinum-5410-D560596WIN9S%2Fdp%2FB09F3QKQH6%2Fref%3Dsr_1_1_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964205%26sprefix%3Dde%252Caps%252C597%26sr%3D8-1-spons%26psc%3D1&amp;qualifier=1641964205&amp;id=6510867788093019&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>HP Pavilion 13, 11th Gen Intel Core i7, 13.3-inch(33.8 cm) FHD,IPS, Micro-Edge Laptop (16GB RAM/ 1TB SSD/ Win 10/ FPR/Audio B&amp;O/Alexa Built-in/MS Office/ Ceramic White/ 1.24 Kg) -13-bb0078TU</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_aps_sr_pg1_1?ie=UTF8&amp;adId=A05796673HAEYPZMON8E6&amp;url=%2FHP-Pavilion-13-3-inch-Micro-Edge-13-bb0078TU%2Fdp%2FB09839P9XB%2Fref%3Dsr_1_2_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964205%26sprefix%3Dde%252Caps%252C597%26sr%3D8-2-spons%26psc%3D1&amp;qualifier=1641964205&amp;id=6510867788093019&amp;widgetName=sp_atf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-1195G7-Platinum-5410-D560596WIN9S/dp/B09F3QKQH6/ref=sr_1_3?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-3</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7470 Intel Core i7 6th Gen 14 inches Laptop /16 GB RAM/512 GB SSD/Windows 10 Pro/MS Office/HD Display/Integrated Graphics, 1.9 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B08MV2BNVB/ref=sr_1_4?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-4</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) Intel i7-10870H Gaming Laptop, 16GB DDR4, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 Ti 4GB, 15.6 inches FHD AG 250 nits 120Hz, Backlit KB Orange (G15 5510, D560534WIN9B), 2.4kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-10870H-G15-5510-D560534WIN9B/dp/B09F3PCD31/ref=sr_1_5?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-5</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E6440 14 Inch Laptop (core_i7_4610M/16GB/512GB SSD/Windows 10 Pro/MS Office Pro 2019/Integrated graphics), Metalic Grey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E6440-Integrated-graphics/dp/B07VQJWDLR/ref=sr_1_6?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-6</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) Intel i7-11800H Gaming Laptop, 16GB, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 Ti 4GB, 15.6 inches FHD, Backlit KB Orange, Dark Shadow Grey (G15 5511, D560546WIN9B), 2.65kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-11800H-G15-5511-D560546WIN9B/dp/B09F3Q5GTR/ref=sr_1_7?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-7</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) Inspiron 5410 Intel i7-1165G7 14 inches 16Gb RAM, 512Gb SSD, FHD Display, Windows 10 + MSO, Backlit KB + FPR + Active Pen, 2in1 Touch Screen Laptop - Silver Metal, 1.5 kg, D560469WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5410-i7-1165G7-Display/dp/B095S9NJ4S/ref=sr_1_8?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-8</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09LSB832Z/ref=sr_1_9?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-9</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (8GB RAM/500GB HDD/Windows 10 Pro/MS Office 2019/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B0974WY91B/ref=sr_1_10?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-10</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook 15 Intel 11th Gen Core i5 15.6" (39.62 cm) FHD IPS 300 nits Antiglare 100% sRGB Thin and Light Laptop (8GB/512GB SSD/Windows 10/MS Office/Mineral Grey/1.7 Kg), 20VEA0HGIH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A03780283CI7XLOKMVNFM&amp;url=%2FLenovo-ThinkBook-Antiglare-Windows-20VEA0HGIH%2Fdp%2FB09G39QZZW%2Fref%3Dsr_1_11_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964205%26sprefix%3Dde%252Caps%252C597%26sr%3D8-11-spons%26psc%3D1&amp;qualifier=1641964205&amp;id=6510867788093019&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Mi Notebook Horizon Edition 14 Intel Core i7-10510U 10th Gen Thin and Light Laptop(8GB/512GB SSD/Windows 10/Nvidia MX350 2GB Graphics/Grey/1.35Kg)(Without Webcam) XMA1904-AF</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg1_1?ie=UTF8&amp;adId=A068496430UBR1LY3E383&amp;url=%2FNotebook-Horizon-i7-10510U-Graphics-XMA1904-AF%2Fdp%2FB089DFJHZ8%2Fref%3Dsr_1_12_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964205%26sprefix%3Dde%252Caps%252C597%26sr%3D8-12-spons%26psc%3D1&amp;qualifier=1641964205&amp;id=6510867788093019&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7490 35.56 cm (14-inch) FHD Display Laptop (10th Gen i5-10210U/8GB/512GB SSD/Win 10 + MS Office/Integrated Graphics), Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-7490-i5-10210U-Integrated/dp/B08C5DS6ZQ/ref=sr_1_13?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-13</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 38.1 cm (15-inch) FHD Laptop (11th Gen i5-1135G7/8GB/1TB HDD/256GB SSD/Win 10 + MS Office/2GB Graphics/Soft Mint)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-i5-1135G7-Graphics/dp/B08QCKPLZX/ref=sr_1_14?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-14</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) Intel i5-1135G7 Laptop, 8GB, 256GB SSD, Windows 10 + MS Office, Integrated Graphics, 15.6 inches FHD Display, Carbon Color (Inspiron 3511, D560506WIN9BE), 1.8kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Integrated-3511-D560506WIN9BE/dp/B09F3Q5JCN/ref=sr_1_15?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-15</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 39.62 cm (15.6") FHD Display Laptop (11th Gen i5-1135G7/ 8GB / 1TB + 256GB SSD /NVIDIA MX330 2GB Graphics / Win 10 + MSO / Soft Mint Color) D560439WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-1135G7-Graphics-D560439WIN9S/dp/B0919LPGKH/ref=sr_1_16?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-16</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-10200H Gaming Laptop, 16Gb RAM, 512Gb SSD, 15.6” (39.62 cms) FHD 120Hz 250 nits Display, NVIDIA GTX 1650 4GB Graphics, Win 10 + MSO, Ascent Solid Color (G15 5510, D560473WIN9B)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10200H-G15-5510-D560473WIN9B/dp/B095SBXKLW/ref=sr_1_17?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) Intel i5-11300H, 16GB, 512GB SSD, Integrated Graphics, Windows 10 + MS Office, 14.0 inches FHD Display, Backlit KB + FPR, Silver (Inspiron 5418, D560598WIN9S), 1.46kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-11300H-Integrated-5418-D560598WIN9S/dp/B09F3PKJ3K/ref=sr_1_18?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3400 14 inches FHD Anti Glare Display Laptop/ Intel i5-1135G7 / 8GB / 512 SSD / Nvidia 2GB MX330 Graphics / Windows 10 + Office H&amp;S/ Dune Color) D552156WIN9DE, 1.64kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Display-i5-1135G7-Graphics-D552156WIN9DE/dp/B08MQ6VQL2/ref=sr_1_19?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5518 39.62 cm (15.6") FHD AG 250nits Display Laptop (Ci5-11300H / 16GB / 512GB SSD / NVIDIA MX450 2GB Graphics / Win 10 + MSO / Backlit KB +FPR / Silver) D560480WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5518-Ci5-11300H-D560480WIN9S/dp/B097C2N78Q/ref=sr_1_20?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964205&amp;sprefix=de%2Caps%2C597&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>MSI GF75 Intel i7-10750H 17.3 inches FHD IPS-Level 144Hz Panel Thin Gaming Laptop (16GB/512GB NVMe SSD/Windows 10 Home/Nvidia RTX3050 Ti 4GB GDDR6/Black/2.2Kg), 10UD-086IN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg1_1?ie=UTF8&amp;adId=A02955411I4HE796VYC5X&amp;url=%2FMSI-GF75-i7-10750H-Thin-10UD-086IN%2Fdp%2FB09BR7574Z%2Fref%3Dsr_1_21_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964205%26sprefix%3Dde%252Caps%252C597%26sr%3D8-21-spons%26psc%3D1&amp;qualifier=1641964205&amp;id=6510867788093019&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>Lenovo ThinkBook Yoga 14s Intel Core i7 11th Gen 14"(35.56cm) FHD IPS 300 nits 100% sRGB Dolby Vision 2-in-1 Touchscreen Laptop (16GB RAM/512GB SSD/Windows 10/MS Office/Active Pen/1.50 kg) 20WEA01EIH</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg1_1?ie=UTF8&amp;adId=A0894192VNDS5QPE999G&amp;url=%2FLenovo-Yoga-14s-Touchscreen-20WEA01EIH%2Fdp%2FB09BVJJXCB%2Fref%3Dsr_1_22_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964205%26sprefix%3Dde%252Caps%252C597%26sr%3D8-22-spons%26psc%3D1&amp;qualifier=1641964205&amp;id=6510867788093019&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) Intel i5-1135G7 Laptop, 8GB, 512GB SSD, Windows 10 + MS Office, Integrated Graphics, 14.0 inches FHD Display, Accent Black (Vostro 3400, D552204WIN9BE), 1.59kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg2_1?ie=UTF8&amp;adId=A0893324RR3ADVAX93Y8&amp;url=%2FDell-i5-1135G7-Integrated-3400-D552204WIN9BE%2Fdp%2FB09F3RF871%2Fref%3Dsr_1_17_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964211%26sprefix%3Dde%252Caps%252C597%26sr%3D8-17-spons%26psc%3D1&amp;qualifier=1641964211&amp;id=7101391520911611&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3400 14 inches FHD Anti Glare Display Laptop (11th Gen Intel i5-1135G7 / 8GB / 1TB / Integrated Graphics / Windows 10 + MS Office / Black/ 1.58Kg) D552154WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg2_1?ie=UTF8&amp;adId=A08932006G1YZRF4NVHN&amp;url=%2FDell-i5-1135G7-Integrated-Graphics-D552154WIN9BE%2Fdp%2FB08RXZCXH6%2Fref%3Dsr_1_18_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964211%26sprefix%3Dde%252Caps%252C597%26sr%3D8-18-spons%26psc%3D1&amp;qualifier=1641964211&amp;id=7101391520911611&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Integrated-3400-D552204WIN9BE/dp/B09F3RF871/ref=sr_1_19?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 5.6 inches FHD AG Display Laptop (Intel i5-1135G7/ 4GB/ 1TB HDD + 256GB SSD/ Integrated Graphics/ Windows 10 + MS Office/ Black) D560488WIN9B, 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-Integrated-D560488WIN9B/dp/B099X7YBDL/ref=sr_1_20?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5518 39.62 cm (15.6") FHD AG 250nits Display Laptop (Ci5-11300H / 16GB / 512GB SSD / Integrated Graphics / Win 10 + MSO / Backlit KB + FPR / Silver) D560479WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5518-Ci5-11300H-D560479WIN9S/dp/B097C3B9DZ/ref=sr_1_21?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 3-3250U Laptop, 8GB, 1TB HDD, Windows 10 + MS Office, Radeon Graphics, 15.6 inches FHD Display, Soft Mint Color (Inspiron 3505, D560617WIN9SE), 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Graphics-Inspiron-3505-D560617WIN9SE/dp/B09F3Q4CWN/ref=sr_1_17?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-17</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7415 AMD R5 5500U 14 inches FHD Touch Display 2 in 1 Business Laptop (8GB/512GB SSD/Intel Integrated Graphics/Windows 10 + MSO/Backlit KB + FPR + Active Pen /Pebble Metal Color, 1.5kg) D560470WIN9P</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-7415-Integrated-D560470WIN9P/dp/B095S8HPMY/ref=sr_1_18?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-18</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3500 Laptop | 15.6''Inch |Intel Core i5 11th Generation | Backlit Keyboard + Fingerprint Reader |8GB RAM- 1TB HDD+256GB SSD | Win 10 | Dune (D584006WIN8 ) 1.78 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6Inch-Generation-Fingerprint-D584006WIN8/dp/B09HS8RKZW/ref=sr_1_19?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-19</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) Intel i5-11400H Gaming Laptop, 16GB, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 Ti 4GB, 15.6 inches FHD, Backlit KB Orange, Dark Shadow Grey (G15 5511, D560554WIN9B), 2.65kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-11400H-G15-5511-D560554WIN9B/dp/B09F3PY7K2/ref=sr_1_20?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-20</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 5-3450U Laptop, 8GB DDR4, 256GB SSD, Windows 10 + MS Office, Vega Graphics, 15.6 inches FHD Display, Soft Mint (Inspiron 3505, D560616WIN9SE), 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Graphics-Inspiron-3505-D560616WIN9SE/dp/B09F3QCGFM/ref=sr_1_21?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-21</t>
+  </si>
+  <si>
+    <t>HP Pavilion Gaming 10th Gen Intel Core i5 Processor 39.62 cm(15.6-inch) FHD Gaming Laptop (8GB/512GB SSD + 32GB Intel Optane/Windows 10/NVIDIA 1650Ti 4GB/Shadow Black), 15-dk1508TX</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg2_1?ie=UTF8&amp;adId=A0577461HQTQ6M58R5VL&amp;url=%2FHP-Pavilion-Processor-15-6-inch-15-dk1508TX%2Fdp%2FB08ZN6KNP1%2Fref%3Dsr_1_22_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964211%26sprefix%3Dde%252Caps%252C597%26sr%3D8-22-spons%26psc%3D1&amp;qualifier=1641964211&amp;id=7101391520911611&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 15.6 inches FHD Display Laptop (Intel i5-1135G7 / 4GB / 1TB HDD + 256GB SSD / Integrated Graphics / Windows 10 + MSO / Soft Mint Color) D560437WIN9SE, 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg2_1?ie=UTF8&amp;adId=A0798542INXD1XV884BZ&amp;url=%2FDell-Inspiron-i5-1135G7-Integrated-D560437WIN9SE%2Fdp%2FB08X4PZZMM%2Fref%3Dsr_1_23_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964211%26sprefix%3Dde%252Caps%252C597%26sr%3D8-23-spons%26psc%3D1&amp;qualifier=1641964211&amp;id=7101391520911611&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Integrated-Graphics-D552154WIN9BE/dp/B08RXZCXH6/ref=sr_1_24?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-24</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 39.62 cm (15.6") FHD Display Laptop (R5-3450U / 8GB / 1TB + 256Gb SSD / Vega Graphics / Win 10 + MSO / Soft Mint Color) D560432WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-R5-3450U-Graphics-D560432WIN9S/dp/B0919HGZXG/ref=sr_1_25?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-25</t>
+  </si>
+  <si>
+    <t>2021 Newest Dell Inspiron 3511 15.6 FHD Screen Laptop, 11th Gen Intel Core i3-1115G4, 8GB DDR4 RAM, 1T Hard Disk Drive, Wi-Fi, HDMI, Webcam, Bluetooth, Windows 11 Home, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3511-i3-1115G4-Bluetooth/dp/B09J79PPT5/ref=sr_1_26?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-26</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3405 AMD Ryzen 5 -3500U 14 inches / 8GB / 512GB SSD /Integrated Radeon Vega 8 Graphics / Windows 10 + MS Office FHD Display Laptop - Dune Color, D552166WIN9DE, 1.58 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Display-Integrated-Graphics-D552166WIN9DE/dp/B08X4P5TVN/ref=sr_1_27?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-27</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) Intel i3-1115G4 Laptop, 8GB, 256GB SSD, Windows 10 + MS Office, Integrated Graphics, 14.0 inches FHD Display, Dune Color (Vostro 3400, D552201WIN9DE), 1.59kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1115G4-Integrated-3400-D552201WIN9DE/dp/B09F3QZLB6/ref=sr_1_28?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-28</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 5-5600H Gaming Laptop, 16GB DDR4, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 4Gb, 15.6 inches FHD, Backlit KB Orange, Platinum Silver (G15 5515, D560540WIN9W), 2.57kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Platinum-G15-5515-D560540WIN9W/dp/B09F3QNCY3/ref=sr_1_29?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-29</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5418 35.56 cm (14") FHD Display Laptop (i5-11300H / 16GB / 512GB SSD / Integrated Graphics / Win10 + MSO / Backlit KB + FPR / Silver Color) D560481WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5418-Integrated-D560481WIN9S/dp/B097SYTZJJ/ref=sr_1_30?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-30</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3405 14" (35.56cms) HD AG Display Laptop (AMD Silver 3050U / 4GB / 256 SSD / Integrated Graphics / Win 10 + MSO/ Black) D552147WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-35-56cms-Integrated-Graphics-D552147WIN9BE/dp/B08X4NYNHW/ref=sr_1_31?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964211&amp;sprefix=de%2Caps%2C597&amp;sr=8-31</t>
+  </si>
+  <si>
+    <t>HP Victus AMD Ryzen 5 5600H 16.1 inches FHD Gaming Laptop (8GB RAM/512GB SSD/4GB Radeon RX5500M Graphics/Flicker Free Display/Windows 10 Home/MS Office/Mica Silver/2.48 Kg), 16-e0162AX, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg2_1?ie=UTF8&amp;adId=A00496212WYJVHD740GJK&amp;url=%2FHP-RX5500M-Graphics-Flicker-16-e0162AX%2Fdp%2FB098QBT5KT%2Fref%3Dsr_1_32_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964211%26sprefix%3Dde%252Caps%252C597%26sr%3D8-32-spons%26psc%3D1&amp;qualifier=1641964211&amp;id=7101391520911611&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>ASUS TUF Gaming F15 Laptop 15.6" (39.62 cms) FHD 144Hz, Intel Core i5-10300H 10th Gen, GeForce GTX 1650 4GB GDDR6 Graphics (8GB RAM/512GB NVMe SSD/Windows 10/Fortress Gray/2.30 Kg), FX566LH-HN257T</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg2_1?ie=UTF8&amp;adId=A057706132D6OMQQERFYT&amp;url=%2FASUS-i5-10300H-Graphics-Fortress-FX566LH-HN257T%2Fdp%2FB08CRMTKMK%2Fref%3Dsr_1_33_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964211%26sprefix%3Dde%252Caps%252C597%26sr%3D8-33-spons%26psc%3D1&amp;qualifier=1641964211&amp;id=7101391520911611&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>MSI GF75 Thin, Intel i5-10300H, 17.3" FHD IPS-Level 144Hz Panel Laptop (8GB/512GB NVMe SSD/Windows 10 Home/Nvidia GTX1650 4GB GDDR6/Black/2.2Kg), 10SC-095IN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg3_1?ie=UTF8&amp;adId=A09820792MG1RCUSPDWTO&amp;url=%2FMSI-i5-10300H-IPS-Level-Windows-10SC-095IN%2Fdp%2FB09BRCKLLR%2Fref%3Dsr_1_33_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964214%26sprefix%3Dde%252Caps%252C597%26sr%3D8-33-spons%26psc%3D1&amp;qualifier=1641964214&amp;id=2940552783940079&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>HP Victus AMD Ryzen 5 5600H 16.1 inches FHD Gaming Laptop (8GB RAM/512GB SSD/4GB RTX 3050 Graphics/Flicker Free Display/Windows 10 Home/MS Office/Mica Silver/2.48 Kg), 16-e0076AX, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg3_1?ie=UTF8&amp;adId=A0913052RUPPQNVE2VJX&amp;url=%2FHP-Graphics-Flicker-Display-16-e0076AX%2Fdp%2FB098QBZF1N%2Fref%3Dsr_1_34_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964214%26sprefix%3Dde%252Caps%252C597%26sr%3D8-34-spons%26psc%3D1&amp;qualifier=1641964214&amp;id=2940552783940079&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i7-11800H Gaming Laptop, 16GB, 1TB SSD, Win 10 + MSO, NVIDIA RTX 3060 6GB, 15.6" (39.62 cms) FHD 300 nits 360Hz, Backlit KB + Alien FX, Lunar Light (Alienware x15 R1, D569927WIN9)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Alienware-x15-R1-D569927WIN9/dp/B09F3P87NK/ref=sr_1_35?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-1135G7-Integrated-D560437WIN9SE/dp/B08X4PZZMM/ref=sr_1_36?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 39.62 cm (15.6") FHD Display Laptop (11th Gen i3-1115G4/ 8GB / 1 TB HDD/ Integrated Graphics/ Win 10 + MSO/ Soft Mint Color) D560424WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-Integrated-D560424WIN9S/dp/B0919HLGYC/ref=sr_1_37?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3401 14 inches FHD Display Laptop (11th Gen i3-1115G4 / 8GB / 1TB HDD / Integrated Graphics / Win 10 + MS Office / Accent Black) D552175WIN9BE, 1.59kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1115G4-Integrated-Graphics-D552175WIN9BE/dp/B08X4P6V2M/ref=sr_1_33?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-33</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3400 14 inches FHD Display Laptop (Intel i5-1135G7 / 8GB / 1TB HDD + 256GB SSD / Integrated Graphics / Windows 10 + MSO / Black) D552186WIN9BE, 1.59kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Vostro-3400-Integrated-D552186WIN9BE/dp/B097T1WN1Y/ref=sr_1_34?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-34</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-10200H Gaming Laptop, 8Gb RAM, 512Gb SSD, 15.6” (39.62 cms) FHD 120Hz 250 nits Display, NVIDIA GTX 1650 4GB Graphics, Win 10 + MS Office, Dark Shadow Gray (G15 5510, D560560WIN9BE)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10200H-G15-5510-D560560WIN9BE/dp/B097C1BSMZ/ref=sr_1_35?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-35</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Intel 6th Gen Core i7 12.5-Inch (31.75 cms) Touchscreen 1920x1080 Laptop (8 GB/512 GB SSD/Windows 10/Intel HD Graphics 520/Black/2.54 Kg), E7270</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Latitude-E7270-12-5-inch-Graphics/dp/B07MWD4LQR/ref=sr_1_36?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-36</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) i5-1135G7 2in1 Touch Screen Laptop, 16Gb RAM, 512Gb SSD, 14” (35.56 cms) FHD Display, Win 10 + MSO, Backlit KB + FPR + Active Pen, Silver Metal Color (Inspiron 5410, D560477WIN9S)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Inspiron-5410-D560477WIN9S/dp/B095S7WMDZ/ref=sr_1_37?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-37</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg3_1?ie=UTF8&amp;adId=A00108821LSWK34YYW9L1&amp;url=%2FDell-i7-10870H-G15-5510-D560534WIN9B%2Fdp%2FB09F3PCD31%2Fref%3Dsr_1_38_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964214%26sprefix%3Dde%252Caps%252C597%26sr%3D8-38-spons%26psc%3D1&amp;qualifier=1641964214&amp;id=2940552783940079&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Ultrabook LATITUDE E7470 14-inch Laptop (Core i5 6th Gen/8GB (Upgradable to 32)/256 GB SSD/Windows 10 Pro/ 4 GB Intel HD Graphics,Wifi, Webcam), Black ( 6 Months Onsite Warranty )</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg3_1?ie=UTF8&amp;adId=A041417115P86SAR1Z8PX&amp;url=%2FDell-Ultrabook-LATITUDE-Upgradable-Graphics%2Fdp%2FB09F4C42MS%2Fref%3Dsr_1_39_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964214%26sprefix%3Dde%252Caps%252C597%26sr%3D8-39-spons%26psc%3D1&amp;qualifier=1641964214&amp;id=2940552783940079&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 Intel 11th Gen Core i5-1135G7 15.6 inches FHD Laptop (8GB/1TB + 256GB SSD/Windows 10 + MS Office 2019/Backlit KB/1.83 kg), Soft Mint</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-15-6-inch-i5-1135G7/dp/B08VRSHJKL/ref=sr_1_40?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-40</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 3-3250U Laptop, 8GB DDR4, 256GB SSD, Windows 10 + MS Office, Radeon Graphics, 15.6 inches FHD Display, Carbon Black (Inspiron 3515, D560523WIN9BE), 1.8kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Graphics-Inspiron-3515-D560523WIN9BE/dp/B09F3QJF4W/ref=sr_1_41?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-41</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 39.62 cm (15.6-inch) FHD Laptop (11th Gen Core i5-1135G7/8GB/1TB HDD/Windows 10 + MS Office 2019), Soft Mint</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-15-6-inch-i5-1135G7-Windows/dp/B08Y6XG7K1/ref=sr_1_42?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-42</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 139.62 cm (5.6-inch) FHD Laptop (10th Gen Core i3/8GB/1TB HDD/Windows 10 + MS Office 2019/Intel HD Graphics/1.83 kg), Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-15-6-inch-Laptop-Graphics/dp/B08MB4PXCW/ref=sr_1_43?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-43</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-10200H Gaming Laptop, 8Gb RAM, 512Gb SSD, 15.6” (39.62 cms) FHD 120Hz 250 nits Display, NVIDIA GTX 1650 4GB Graphics, Win 10, Ascent Solid Color (G15 5510, D560451WIN9A)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10200H-G15-5510-D560451WIN9A/dp/B095SD1FHJ/ref=sr_1_44?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-44</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5502 Intel 15.6 inches FHD Business Laptop (NVIDIA 11thGen Core i5-1135G7/8GB RAM/512GB SSD/2GB MX330 Graphics/Windows 10 + MS Office/1.65kg), Platinum Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5502-15-6-inch-i5-1135G7/dp/B08LSCMTFS/ref=sr_1_45?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-45</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3400 14" FHD Display Laptop (i5-1135G7 / 8GB / 512GB SSD / Nvidia 2GB MX330 Graphics / Win10 + MSO / Dune Color) D552183WIN9DE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Vostro-3400-i5-1135G7-D552183WIN9DE/dp/B097SZ295X/ref=sr_1_46?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-46</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 13 5310 , 13.3 inch QHD (Quad High Definition) Non-Touch Laptop, Slim and Light Laptop - Intel Core i7 Evo, 16GB LPDDR4x RAM, 512GB SSD, Windows 10 - Platinum Silver (Latest Model)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Definition-Non-Touch-Laptop/dp/B0934T5HHY/ref=sr_1_47?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964214&amp;sprefix=de%2Caps%2C597&amp;sr=8-47</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) Thin &amp; Light Intel i3-1005G1 Laptop, 4Gb RAM, 1TB HDD + 256GB SSD, 14 inches FHD AG Display, Windows 10 Home + MSO, Black (Vostro 3401, D552151WIN9BE), 1.58kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg3_1?ie=UTF8&amp;adId=A08934801M0XNVOPKM84M&amp;url=%2FDell-i3-1005G1-Integrated-Graphics-D552151WIN9BE%2Fdp%2FB08R777GBL%2Fref%3Dsr_1_48_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964214%26sprefix%3Dde%252Caps%252C597%26sr%3D8-48-spons%26psc%3D1&amp;qualifier=1641964214&amp;id=2940552783940079&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>Lenovo Legion 5 10th Gen Intel Core i5-10300H 15.6" (39.62cm) FHD IPS Gaming Laptop (8GB/512GB SSD/Windows 10/NVIDIA GTX 1650 4GB/120Hz Refresh Display/Phantom Black/2.3Kg), 82AU00Q0IN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg3_1?ie=UTF8&amp;adId=A0394336167D9I7BOYMNN&amp;url=%2FLenovo-i5-10300H-39-62cm-Windows-82AU00Q0IN%2Fdp%2FB09C5X6H5J%2Fref%3Dsr_1_49_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964214%26sprefix%3Dde%252Caps%252C597%26sr%3D8-49-spons%26psc%3D1&amp;qualifier=1641964214&amp;id=2940552783940079&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>Asus Vivobook i5-1135G7/MX330/8G/1TB+256 PCIe SSD/Bespoke BLACK/15.6"FHD vIPS/1Y International Warranty + McAfee/Office H&amp;S/Finger Print/Backlit KB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg4_1?ie=UTF8&amp;adId=A03605242FY77I43KZ4LO&amp;url=%2FVivobook-i5-1135G7-Bespoke-International-Warranty%2Fdp%2FB08Z2CG2LK%2Fref%3Dsr_1_49_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964217%26sprefix%3Dde%252Caps%252C597%26sr%3D8-49-spons%26psc%3D1%26smid%3DA1S1RV7QA28FUJ&amp;qualifier=1641964217&amp;id=3649936270605603&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 96 GB RAM - 2.5TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg4_1?ie=UTF8&amp;adId=A0985559ID4PYQG044T&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB09128GQ1K%2Fref%3Dsr_1_50_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964217%26sprefix%3Dde%252Caps%252C597%26sr%3D8-50-spons%26psc%3D1&amp;qualifier=1641964217&amp;id=3649936270605603&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (12GB RAM /1TB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5G7TZS/ref=sr_1_51?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E6420 Intel Core i7 2460M 14 inches Laptop (8GB/256GB SSD/Nvidia Dedicated Graphics/Windows Professional/MS Office), Dark Grey, 1.9 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E6420-Dedicated-Professional/dp/B07WPDNLFR/ref=sr_1_52?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-52</t>
+  </si>
+  <si>
+    <t>Dell G3 3500 Gaming Laptop 15.6 inches FHD 120 Hz Display (10th Gen Intel Core i5-10300H/8GB/1TB + 256GB SSD/Windows 10/4GB NVIDIA1650 Ti Graphics/Eclipse Black) D560253HIN9BE, 2.3kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6-inch-i5-10300H-NVIDIA1650-D560253HIN9BE/dp/B08H9W26LF/ref=sr_1_53?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-53</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) Intel i3-1115G4 Laptop, 8GB, 256GB SSD, Windows 10 + MS Office, Integrated Graphics, 15.6 inches FHD Display, Carbon Color (Inspiron 3511, D560581WIN9BE), 1.8kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1115G4-Integrated-3511-D560581WIN9BE/dp/B09F3QP9JS/ref=sr_1_49?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-49</t>
+  </si>
+  <si>
+    <t>Dell XPS 9305 13.3 (33.78 Cms) FHD Display Thin &amp; Light Laptop (i7-1165G7 / 16GB / 512GB SSD / Integrated Graphics / Win 10 + MSO / Backlit KB + FPR / Silver Color) D560050WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-XPS-9305-Integrated-D560050WIN9S/dp/B095S85DZW/ref=sr_1_50?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-50</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E5440 14 Inch (35.56 cms) Laptop ( Intel Core i5 4th Gen, 8GB, 128 SSD, Windows 10 Pro, Intel HD Graphics 3000, Dark Gray, 1.90 Kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E5440-14in-Notebook/dp/B071X5CVWP/ref=sr_1_51?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) i3-1125G4 2in1 Touch Screen Laptop, 8Gb RAM, 512Gb SSD, 14” (35.56 cms) FHD Display, Win 10 + MSO, Backlit KB + FPR + Active Pen, Silver Metal Color (Inspiron 5410, D560531WIN9S)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1125G4-Inspiron-5410-D560531WIN9S/dp/B097SZ1DPQ/ref=sr_1_52?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-52</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7240 12.5 inch (31.75 cm) Business Laptop (Intel Core i7 4th Gen, 8GB, 256GB SSD,Windows 10, Intel Integrated Graphics, 1.7 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-12-5-inch-Integrated-Graphics/dp/B08DV5H349/ref=sr_1_53?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg4_1?ie=UTF8&amp;adId=A07976822RZPCZ1DRLK6Y&amp;url=%2FDell-Vostro-3400-i5-1135G7-D552183WIN9DE%2Fdp%2FB097SZ295X%2Fref%3Dsr_1_54_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964217%26sprefix%3Dde%252Caps%252C597%26sr%3D8-54-spons%26psc%3D1&amp;qualifier=1641964217&amp;id=3649936270605603&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>MSI GF75 Thin Gaming, Intel i7-10750H, 17.3" (43.9 cm) FHD IPS-Level 144Hz Panel Laptop (8GB/512GB NVMe SSD/Windows 10 Home/Nvidia GTX1650 4GB GDDR6/Black/2.2Kg), 10SCXR-654IN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg4_1?ie=UTF8&amp;adId=A08684523BANJNIPVW3FB&amp;url=%2FMSI-i7-10750H-IPS-Level-Windows-10SCXR-654IN%2Fdp%2FB093L8QGL7%2Fref%3Dsr_1_55_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964217%26sprefix%3Dde%252Caps%252C597%26sr%3D8-55-spons%26psc%3D1&amp;qualifier=1641964217&amp;id=3649936270605603&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-1135G7 Laptop,8Gb RAM,1TB HDD + 256Gb SSD,15.6” (39.62 cms) FHD Display, Win 10 + MS Office,Nvidia 2GB MX350 Graphics,Backlit KB, Platinum Silver Color (Inspiron 3511, D560505WIN9S)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Inspiron-3511-D560505WIN9S/dp/B097SZTNJ3/ref=sr_1_56?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-56</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i7-10750H Gaming Laptop, 8Gb RAM, 1TB SSD, 15.6” (39.62 cms) FHD 144Hz 300 nits Display, Nvidia 1650Ti 6GB GDDR6 Graphics, Win 10 + MSO, RGB KB + FPR, Black (G5 5505, D560324WIN9B)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-10750H-Display-Graphics-D560324WIN9B/dp/B0919LBHX4/ref=sr_1_57?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1005G1-Integrated-Graphics-D552151WIN9BE/dp/B08R777GBL/ref=sr_1_58?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-58</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen12.5 Inch(31.75 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7280</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B097YY81J6/ref=sr_1_59?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-59</t>
+  </si>
+  <si>
+    <t>Dell Gaming G15 5511, 15.6-inch inch FHD 120Hz Non-Touch Laptop - Intel Core i7-11800H, 16GB DDR4 RAM, 512GB SSD, NVIDIA GeForce RTX 3050 Ti 4GB GDDR6 , Windows 10 Home - Black (Latest Model)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Gaming-15-6-inch-Non-Touch-Laptop/dp/B0979D5HRY/ref=sr_1_60?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-60</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM /2TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TTRWYJ/ref=sr_1_61?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-61</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (4GB RAM/320GB HDD/Windows 10 Pro/MS Office 2019/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B0974W4W9W/ref=sr_1_62?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-62</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TW3NZ9/ref=sr_1_63?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964217&amp;sprefix=de%2Caps%2C597&amp;sr=8-63</t>
+  </si>
+  <si>
+    <t>Victus by HP AMD Ryzen 5 5600H 16.1 inches FHD Gaming Laptop (8GB RAM/512GB SSD/4GB GTX 1650 Graphics/B&amp;O Audio/Flicker Free Display/Windows 10 Home/MS Office/2.48 Kg), 16-e0075AX</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg4_1?ie=UTF8&amp;adId=A0727207198G0OC2E4OWA&amp;url=%2FHP-Graphics-Flicker-Display-16-e0075AX%2Fdp%2FB098QB1TPX%2Fref%3Dsr_1_64_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964217%26sprefix%3Dde%252Caps%252C597%26sr%3D8-64-spons%26psc%3D1&amp;qualifier=1641964217&amp;id=3649936270605603&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>MSI GF75 Intel Core i7-10750H, 17.3 inches FHD IPS-Level 144Hz Panel Thin Gaming Laptop (8GB/512GB NVMe SSD/Windows 10 Home/NVIDIA GTX1650 4GB GDDR6/Black/2.2Kg), 10SC-087IN (9S7-17F612-087)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg4_1?ie=UTF8&amp;adId=A09822353HF1HGO856REK&amp;url=%2FMSI-i7-10750H-IPS-Level-10SC-087IN-9S7-17F612-087%2Fdp%2FB09BR9RQY7%2Fref%3Dsr_1_65_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964217%26sprefix%3Dde%252Caps%252C597%26sr%3D8-65-spons%26psc%3D1&amp;qualifier=1641964217&amp;id=3649936270605603&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg4_1?ie=UTF8&amp;adId=A03605242FY77I43KZ4LO&amp;url=%2FVivobook-i5-1135G7-Bespoke-International-Warranty%2Fdp%2FB08Z2CG2LK%2Fref%3Dsr_1_49_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964234%26sprefix%3Dde%252Caps%252C597%26sr%3D8-49-spons%26psc%3D1%26smid%3DA1S1RV7QA28FUJ&amp;qualifier=1641964234&amp;id=4470110620927308&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg4_1?ie=UTF8&amp;adId=A0985559ID4PYQG044T&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB09128GQ1K%2Fref%3Dsr_1_50_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964234%26sprefix%3Dde%252Caps%252C597%26sr%3D8-50-spons%26psc%3D1&amp;qualifier=1641964234&amp;id=4470110620927308&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5G7TZS/ref=sr_1_51?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-51</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E6420-Dedicated-Professional/dp/B07WPDNLFR/ref=sr_1_52?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-52</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6-inch-i5-10300H-NVIDIA1650-D560253HIN9BE/dp/B08H9W26LF/ref=sr_1_53?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-53</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1115G4-Integrated-3511-D560581WIN9BE/dp/B09F3QP9JS/ref=sr_1_54?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-54</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-XPS-9305-Integrated-D560050WIN9S/dp/B095S85DZW/ref=sr_1_55?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-55</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E5440-14in-Notebook/dp/B071X5CVWP/ref=sr_1_56?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-56</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1125G4-Inspiron-5410-D560531WIN9S/dp/B097SZ1DPQ/ref=sr_1_57?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-57</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-12-5-inch-Integrated-Graphics/dp/B08DV5H349/ref=sr_1_58?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-58</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg4_1?ie=UTF8&amp;adId=A07976822RZPCZ1DRLK6Y&amp;url=%2FDell-Vostro-3400-i5-1135G7-D552183WIN9DE%2Fdp%2FB097SZ295X%2Fref%3Dsr_1_59_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964234%26sprefix%3Dde%252Caps%252C597%26sr%3D8-59-spons%26psc%3D1&amp;qualifier=1641964234&amp;id=4470110620927308&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg4_1?ie=UTF8&amp;adId=A08684523BANJNIPVW3FB&amp;url=%2FMSI-i7-10750H-IPS-Level-Windows-10SCXR-654IN%2Fdp%2FB093L8QGL7%2Fref%3Dsr_1_60_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964234%26sprefix%3Dde%252Caps%252C597%26sr%3D8-60-spons%26psc%3D1&amp;qualifier=1641964234&amp;id=4470110620927308&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Inspiron-3511-D560505WIN9S/dp/B097SZTNJ3/ref=sr_1_61?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-61</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-10750H-Display-Graphics-D560324WIN9B/dp/B0919LBHX4/ref=sr_1_62?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-62</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1005G1-Integrated-Graphics-D552151WIN9BE/dp/B08R777GBL/ref=sr_1_63?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-63</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B097YY81J6/ref=sr_1_64?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-64</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Gaming-15-6-inch-Non-Touch-Laptop/dp/B0979D5HRY/ref=sr_1_65?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-65</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TTRWYJ/ref=sr_1_66?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-66</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B0974W4W9W/ref=sr_1_67?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-67</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TW3NZ9/ref=sr_1_68?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964234&amp;sprefix=de%2Caps%2C597&amp;sr=8-68</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg4_1?ie=UTF8&amp;adId=A0727207198G0OC2E4OWA&amp;url=%2FHP-Graphics-Flicker-Display-16-e0075AX%2Fdp%2FB098QB1TPX%2Fref%3Dsr_1_69_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964234%26sprefix%3Dde%252Caps%252C597%26sr%3D8-69-spons%26psc%3D1&amp;qualifier=1641964234&amp;id=4470110620927308&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg4_1?ie=UTF8&amp;adId=A09822353HF1HGO856REK&amp;url=%2FMSI-i7-10750H-IPS-Level-10SC-087IN-9S7-17F612-087%2Fdp%2FB09BR9RQY7%2Fref%3Dsr_1_70_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964234%26sprefix%3Dde%252Caps%252C597%26sr%3D8-70-spons%26psc%3D1&amp;qualifier=1641964234&amp;id=4470110620927308&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 96 GB RAM - 1TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg5_1?ie=UTF8&amp;adId=A0986051C1GI1ULEJYDV&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB0912H9JTM%2Fref%3Dsr_1_65_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964239%26sprefix%3Dde%252Caps%252C597%26sr%3D8-65-spons%26psc%3D1&amp;qualifier=1641964239&amp;id=205815186914984&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>MSI GF75 Thin, Intel i5-10500H, 17.3 inches FHD IPS-Level 144Hz Panel Gaming Laptop (8GB/512GB NVMe SSD/Windows 10 Home/NVIDIA GTX1650 4GB GDDR6/Black/2.2Kg), 10SCXR-655IN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg5_1?ie=UTF8&amp;adId=A08764885FG96ISSHMPJ&amp;url=%2FMSI-i5-10500H-IPS-Level-Windows-10SCXR-655IN%2Fdp%2FB093L9SYZP%2Fref%3Dsr_1_66_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964239%26sprefix%3Dde%252Caps%252C597%26sr%3D8-66-spons%26psc%3D1&amp;qualifier=1641964239&amp;id=205815186914984&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-10200H Gaming Laptop, 8Gb RAM, 512Gb SSD, 15.6” (39.62 cms) FHD 120Hz 250 nits Display, NVIDIA GTX 1650 4GB Graphics, Win 10, Ascent Solid Color (G15 5510, D560452WIN9A)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10200H-G15-5510-D560452WIN9A/dp/B097C2BRKJ/ref=sr_1_67?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-67</t>
+  </si>
+  <si>
+    <t>Dell RENEWED INS 5482 CORE I7-8565U/8GB/256GBSSD/ 35.56 cm Touch / Win 10 Home, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-RENEWED-I7-8565U-256GBSSD-35-56/dp/B098DHCFJZ/ref=sr_1_68?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-68</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude 2nd Gen Intel Core i5 14 inches 1366x768 Business Laptop (8 GB/500 GB/Windows 7/Integrated Graphics/Greyish Silver/2.40 Kg), E6420-i5-8 GB-500 GB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-E6420-i5-8-GB-500-GB-Integrated/dp/B07LB4XRWC/ref=sr_1_69?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-69</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop(8GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5H9YL1/ref=sr_1_65?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-65</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E6420 14 Inch Laptop (Core I7 2460M/8GB/1TB/Nvidia Dedicated Graphics/Windows Professional/MS Office), Dark Grey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E6420-Dedicated-Professional/dp/B07WVC8HW3/ref=sr_1_66?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-66</t>
+  </si>
+  <si>
+    <t>Dell G5 5500 Intel Core i7-10th gen 15.6 inches, 8GB, 512GB SSD, 4GB NVIDIA GeForce GTX 1650 Ti 4GB Graphics, Windows 10 Home &amp; MS Office Full HD Laptop, 2.61kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-5500-i7-10th-Graphics-Office/dp/B07GX4PD3F/ref=sr_1_67?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-67</t>
+  </si>
+  <si>
+    <t>Dell XPS 9500 15.6 inches FHD Laptop (10th Gen Intel Core i7-10750H/16GB/512GB SSD/Windows 10 Home Plus &amp; MS Office/4GB NVIDIA1650 Ti Graphics), Silver, 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/9500-15-6-inch-i7-10750H-NVIDIA1650-Graphics/dp/B08BZP7WGB/ref=sr_1_68?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-68</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Athlon Silver 3050U Laptop, 4GB, 256GB SSD, Windows 10 + MS Office, 15.6 inches FHD Display, Radeon Graphics, Soft Mint Color (Inspiron 3505, D560613WIN9SE), 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Graphics-Inspiron-3505-D560613WIN9SE/dp/B09F3NL1RT/ref=sr_1_69?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-69</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg5_1?ie=UTF8&amp;adId=A0796078RN66OXVAFAHG&amp;url=%2FDell-Display-i5-1135G7-Graphics-D552156WIN9DE%2Fdp%2FB08MQ6VQL2%2Fref%3Dsr_1_70_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964239%26sprefix%3Dde%252Caps%252C597%26sr%3D8-70-spons%26psc%3D1&amp;qualifier=1641964239&amp;id=205815186914984&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Lenovo IdeaPad Gaming 3 Intel Core i5 10th Gen 15.6-inch (39.6 cm) FHD 120Hz IPS Gaming Laptop (8GB/512 SSD/Windows 10/NVIDIA GTX 1650 4GB GDDR6/Onyx Black/2.2Kg), 81Y4017UIN</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg5_1?ie=UTF8&amp;adId=A05774051HJ47FDEEWPT7&amp;url=%2FLenovo-IdeaPad-15-6-inch-Windows-81Y4017UIN%2Fdp%2FB094XF92HG%2Fref%3Dsr_1_71_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964239%26sprefix%3Dde%252Caps%252C597%26sr%3D8-71-spons%26psc%3D1&amp;qualifier=1641964239&amp;id=205815186914984&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Intel 4th Gen Core i5 12-Inch (30.48 cms) 1366x768 Laptop (8 GB/240 GB/Windows 7/Integrated Graphics/Silver/1.72 Kg), E7240-i5-8 GB SSD-240 GB SSD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/E7240-i5-8-GB-SSD-240-SSD-Integrated/dp/B07PCCCYGP/ref=sr_1_72?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-72</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E6540 Intel Core i7 4th Gen 15.6 inches/4GB/500GB/WEBCAM/Windows 10 Pro Laptop (Full HD 1920 X 1080 , 3 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-Windows/dp/B08ZJFQY1X/ref=sr_1_73?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-73</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4800MQ 15.2-Inch (38.61 cms) 1920x1080 Laptop (16 GB/240 GB/Windows/MS Office Pro 2019 /Intel Integrated HD Graphics 4600/Silver/1.90 Kg), Latitude E6540</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-E6540-15-inch/dp/B0827X7PB6/ref=sr_1_74?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-74</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) Touchscreen 1920x1080 Laptop (16 GB/512 GB SSD/Windows/MS Office Pro 2019 /AMD/Black/2.10 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-6820HQ-Touchscreen-1920x1080-Latitude/dp/B08P5TN4S1/ref=sr_1_75?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-75</t>
+  </si>
+  <si>
+    <t>Dell G7 7500 Intel 10th Gen i7-10750H 15.6 inches FHD Gaming Laptop (16 GB/1TB SSD/Nvidia RTX 2060 6GB Graphics / Windows 10 + MS Office H&amp;S 2019, 2.5 kg) D560232WIN9B</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-10750H-Graphics-Premium-D560232WIN9B/dp/B08GYGRZZJ/ref=sr_1_76?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-76</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 38.1 cm (15") FHD Display Laptop (i3-1005G1 / 8GB / 256GB SSD / Integrated Graphics / Win 10 + MSO / Accent Black) D560396WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i3-1005G1-Integrated-D560396WIN9BE/dp/B08X4JQ58G/ref=sr_1_77?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-77</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5502 11th Gen Intel Core i5-1135G7 15.6 inches FHD Laptop 8GB RAM/512GB SSD/Integrated Graphics/Windows 10 + MS Office Laptop (Platinum Silver, 1.7 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-5502-15-6-inch-i5-1135G7-Integrated/dp/B08N5YM4YL/ref=sr_1_78?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-78</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3400 14 inches FHD Display Laptop (Intel i3-1115G4 / 8GB / 256GB SSD / Integrated Graphics / Windows 10 + MSO / Black) D552190WIN9BE, 1.59kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Vostro-3400-Integrated-D552190WIN9BE/dp/B097SZHHLC/ref=sr_1_79?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964239&amp;sprefix=de%2Caps%2C597&amp;sr=8-79</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) Laptop i3-1115G4, 8GB, 1TB HDD, Win 11 + MS Office, Integrated Graphics, 15.6" (39.61 cms) FHD Display, Carbon Color (Inspiron 3511, D560646WIN9B)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg5_1?ie=UTF8&amp;adId=A059566926UMCSF2F0HP8&amp;url=%2FDell-i3-1115G4-Integrated-3511-D560646WIN9B%2Fdp%2FB09NRG7BB5%2Fref%3Dsr_1_80_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964239%26sprefix%3Dde%252Caps%252C597%26sr%3D8-80-spons%26psc%3D1%26smid%3DA3EXNT9L8OUXD5&amp;qualifier=1641964239&amp;id=205815186914984&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 32 GB RAM - 1.5TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg6_1?ie=UTF8&amp;adId=A0996215204KO70R1HOP5&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB0911RNBMR%2Fref%3Dsr_1_81_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964243%26sprefix%3Dde%252Caps%252C597%26sr%3D8-81-spons%26psc%3D1&amp;qualifier=1641964243&amp;id=7776820641233860&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7400 14.5 inches QHD+ Laptop (Intel 11th Gen i7-1165G7/16GB/512GB SSD/2GB Graphics/Windows 10 Home + MS Office/Backlit Keyboard/Fingerprint Reader/Silver), 1.3kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-14-5-inch-i7-1165G7-Fingerprint/dp/B08MQ7RK8H/ref=sr_1_82?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-82</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 15.6 inch(39.6 cm) FHD Display Laptop (R5-3450U / 8GB / 256GB SSD / Vega 8 Graphics / Win10 + MSO / Accent Black) D560485WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3505-R5-3450U-D560485WIN9BE/dp/B097C2NN72/ref=sr_1_83?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-83</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM /2TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JVQBQ4Z/ref=sr_1_84?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-84</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3400 14" (35.56cms) FHD Anti Glare Display Laptop (11th Gen i5-1135G7 / 8GB / 512 SSD / Integrated Graphics / Win 10 + Office H&amp;S/ Dune Color /1.64Kg/Backlit Keyboard) D552157WIN9DE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-35-56cms-i5-1135G7-Integrated-D552157WIN9DE/dp/B08MPWFK22/ref=sr_1_85?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-85</t>
+  </si>
+  <si>
+    <t>Dell G3 3500 Gaming 15.6 inches Laptop (10th Gen Intel Core i5-10300H/8GB/1TB + 256GB SSD/Windows 10 Home/4GB NVIDIA1650 Ti Graphics), Eclipse Black, 2.3kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6-inch-i5-10300H-NVIDIA1650-Graphics/dp/B08BZQMPFK/ref=sr_1_81?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-81</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (8GB RAM/500GB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GSC2573/ref=sr_1_82?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-82</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (8GB RAM/500GB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JVXH7N3/ref=sr_1_83?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-83</t>
+  </si>
+  <si>
+    <t>Del Inspiron 3501 39.62 cm (15.6") FHD Display Laptop (11th Gen i5-1135G7 / 8GB / 1TB HDD + 256GB SSD / NVIDIA MX330 2GB GDDR5/ Win 10 + MSO /Soft Mint) D560438WIN9SE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Inspiron-Display-Laptop-i5-1135G7-D560438WIN9SE/dp/B08X4NT9SD/ref=sr_1_84?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-84</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 4th Gen Core i7 4600U 14-Inch (35.56 cms) 1366x768 Laptop (4 GB/256 GB SSD/Windows 10/MS Office Pro 2019 /Intel HD Graphics 4600/Silver/1.80 kg), Dell Lattitude E7440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-1366x768-Graphics-Lattitude/dp/B08RS41X61/ref=sr_1_86?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-86</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 Intel 15.6 inches FHD Business Laptop (Ryzen 3 3250U/8GB/1TB HDD/Windows 10/MS Office 2019/AMD Radeon Vega Graphics/1.83 kg) - Platinum Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-15-6-inch-Laptop-Graphics/dp/B08KWJ4G4R/ref=sr_1_87?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-87</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7470 14-inch Laptop (Core i7 6th Gen/16GB/1 TB HDD/Windows 10/MS Office Pro 2019/Intel Graphics), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-14-inch-Graphics/dp/B08RRSCQZ7/ref=sr_1_88?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-88</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E5470 14-inch Laptop (Core I5 6th Gen/8GB/256 GB SDD/Windows 10/MS Office Pro 2019/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B0891TPQ5V/ref=sr_1_89?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-89</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7240 12-inch Laptop (Core I5 4th Gen/8GB/256 GB SSD/Windows 10/MS Office Pro 2019/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E7240-Integrated-Graphics/dp/B083V3WN1H/ref=sr_1_90?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-90</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4th Gen 14 inches 1366x768 HD Business Laptop (16GB RAM /1TB HDD/Windows 10 Pro/MS Office 2019/Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Business-Integrated-Graphics/dp/B0974WWK87/ref=sr_1_91?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-91</t>
+  </si>
+  <si>
+    <t>Dell 14 (2021) AMD Ryzen 5-3450U Laptop 8GB, 256GB SSD, Windows 10 + MS Office, Vega Graphics, 14.0 inches FHD Display/ Dune Color (Vostro 3405, D552180WIN9D), 1.59kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-5-3450U-Graphics-3405-D552180WIN9D/dp/B09F3S4QRZ/ref=sr_1_92?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964243&amp;sprefix=de%2Caps%2C597&amp;sr=8-92</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 64 GB RAM - 2TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg7_1?ie=UTF8&amp;adId=A09857152SNV0B5L1W7JU&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB09124V3JR%2Fref%3Dsr_1_97_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964247%26sprefix%3Dde%252Caps%252C597%26sr%3D8-97-spons%26psc%3D1&amp;qualifier=1641964247&amp;id=6970568998488179&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JVYQZ6L/ref=sr_1_98?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-98</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (32GB RAM /1TB SSD/Windows 10 Pro/MS Office/Intel HD Integrated Graphics/ Black/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09LSB63N8/ref=sr_1_99?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-99</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7400 11th Gen Intel i5-1135G7 14.5 inches QHD+ IPS Anti Glare Display / 8 GB / 512 SSD / Nvidia MX 350 2 GB Graphics / Windows 10 + MSO Laptop (Silver, 1.35 kg) D560381WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-1135G7-Graphics-D560381WIN9S/dp/B08MQDZ8KZ/ref=sr_1_100?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-100</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5593 15.6 inches Laptop (Intel 10th Gen i5-1035G1/8GB/1TB HDD + 256GB SSD/Windows 10/Integrated Graphics), Silver, 1.83kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-5593-15-6-inch-i5-1035G1-Integrated/dp/B08C5FXQDR/ref=sr_1_101?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-101</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM/256GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TVD56J/ref=sr_1_97?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-97</t>
+  </si>
+  <si>
+    <t>Dell XPS 7390 Intel 10th Gen i7-10510U 13.3 inches UHD Thin and Light Laptop (8GB/512GB SSD/Windows 10 + MS Office/Integrated Graphics), Silver, 1.29 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-7390-13-3-inch-i7-10510U-Integrated/dp/B08C5DSRH7/ref=sr_1_98?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-98</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (4GB RAM/128GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09LS9SG17/ref=sr_1_99?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-99</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.4Kg,Black) Latitude 3440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09LSBCT89/ref=sr_1_100?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-100</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen12.5 Inch(31.75 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7280</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B097YXTS33/ref=sr_1_101?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-101</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TTQFJB/ref=sr_1_102?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-102</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Lattitude E5270 -12.5 inch HD Laptop-Core I5 6th Gen-8 GB DDR4 RAM-256 GB SSD-Win 10 Pro/MS Office-19</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Lattitude-Laptop-Core-Office-19/dp/B08LPTC2QS/ref=sr_1_103?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-103</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (32GB RAM /1TB SSD/Windows 10 Pro/MS Office//Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5DZH9W/ref=sr_1_104?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-104</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (12GB RAM/512GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5D51KC/ref=sr_1_105?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-105</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14 inches 1366 x 768 HD Business Laptop (16GB RAM /1TB SSD/Windows 10 Pro/MS Office/HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Business-Integrated-Graphics-Latitude/dp/B09KN4KKRR/ref=sr_1_106?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-106</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude 4th Gen Intel Core i7 14 inches Touchscreen 1920x1080 Business Laptop - 8 GB/256 GB SSD/Windows 10/HD Graphics 4400/Black/1.63 Kg/35.56 cm, E7440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Latitude-E7440-Touchscreen-Integrated-Graphics/dp/B07PKKJPY9/ref=sr_1_107?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-107</t>
+  </si>
+  <si>
+    <t>Dell 15 Inspiron 3511 Laptop (2021) 15.6'' Inch FHD | i5- 11th Gen 1135G7 | Win 10 + MS Office | 8GB - 512GB SSD | Integrated Graphics Backlit KB| D560509WIN9S-Platinum Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Laptop-1135G7-Office/dp/B09JZNZV2R/ref=sr_1_108?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964247&amp;sprefix=de%2Caps%2C597&amp;sr=8-108</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 32 GB RAM - 4TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg8_1?ie=UTF8&amp;adId=A09858952W9FK8KX0OB42&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB0912H5FJ5%2Fref%3Dsr_1_113_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964250%26sprefix%3Dde%252Caps%252C597%26sr%3D8-113-spons%26psc%3D1&amp;qualifier=1641964250&amp;id=2377139640348241&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>Dell XPS 17 (2021) i7-11800H Touch Screen Laptop / 16GB / 1TB SSD/ NVIDIA RTX 3060 6GB GDDR6 / Win 10 + MS Office/ 17.0" UHD+ AR 500 nits / Backlit KB + FPR / Platinum Silver (XPS 9710, D560056WIN9S)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-11800H-Backlit-Platinum-D560056WIN9S/dp/B09FWWNFDB/ref=sr_1_114?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-114</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3593 10th Gen Intel Core i3-1035G1 15.6 inches FHD Laptop /4GB/1TB HDD/Windows 10 + Microsoft Office/No DvD/Integrated Graphics, 2.02kg (Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/3593-15-6-inch-i3-1035G1-Microsoft-Integrated/dp/B08LC55QJ1/ref=sr_1_115?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-115</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 Intel Core i3 10th Gen 15.6 inches, 8GB DDR4/1TB, Windows 10 Home + Office 2019, Full HD 1920 X 1080, LED Laptop (Black, 2 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Core-Windows-Office/dp/B08MPWR1JR/ref=sr_1_116?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-116</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 7-5800H Gaming Laptop, 16GB DDR4, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 4GB, 15.6 inches FHD, Backlit KB Orange, Platinum Silver, (G15 5515, D560538WIN9W), 2.57kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Platinum-G15-5515-D560538WIN9W/dp/B09F3RCSTL/ref=sr_1_117?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-117</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM /1TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TWFZD9/ref=sr_1_113?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-113</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (4GB RAM/128GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5G314R/ref=sr_1_115?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-115</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1115G4-Integrated-3511-D560646WIN9B/dp/B09NRG7BB5/ref=sr_1_116?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-116</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office 2019/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B09751MTTH/ref=sr_1_117?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-117</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM /1TB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JW1F29H/ref=sr_1_118?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-118</t>
+  </si>
+  <si>
+    <t>Dell XPS 9310 Intel Evo 11th Gen i5-1135G7 13.4 inches FHD Display Thin and Light Business Laptop (8 GB / 512 SSD / Integrated Graphics / Windows 10 + MSO / Silver, 1.2 kg, D560032WIN9S)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-1135G7-Integrated-Graphics-D560032WIN9S/dp/B08MQK2YN7/ref=sr_1_119?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-119</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-10200H Gaming Laptop,16Gb RAM, 512Gb SSD, 15.6” (39.62 cms) FHD 120Hz 250 nits Display, NVIDIA GTX 1650 4GB Graphics, Win 10, Ascent Solid Color (G15 5510, D560474WIN9BE)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10200H-G15-5510-D560474WIN9BE/dp/B095S8L3Z7/ref=sr_1_120?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-120</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 5th Gen Core i7 5600U 14-Inch (35.56 cms) 1920 X 1080 Ultra Slim &amp; Light Laptop (8 GB/512 GB SSD/Windows/Intel graphics/Black/1.62 Kg), E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-14-Inch-Windows-graphics/dp/B08PFZRGGN/ref=sr_1_121?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-121</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7270 12.5 inch Laptop (Core i7 6th Gen/16 GB/256 GB SSD/Windows 10 Pro/MS Office/HD Display/Integrated Graphics)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B08RRXC22K/ref=sr_1_122?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-122</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (12GB RAM /1TB SSD/Windows 10 Pro/MS Office/Intel HD graphics/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-TOUCHSCREEN-graphics-Latitude/dp/B09LSB1XW7/ref=sr_1_123?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-123</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (16GB RAM /2TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GS92CYQ/ref=sr_1_124?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964250&amp;sprefix=de%2Caps%2C597&amp;sr=8-124</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 96 GB RAM - 1.5TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg9_1?ie=UTF8&amp;adId=A09867311U2HXA25LWEOS&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB0912NDC8H%2Fref%3Dsr_1_129_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964253%26sprefix%3Dde%252Caps%252C597%26sr%3D8-129-spons%26psc%3D1&amp;qualifier=1641964253&amp;id=8397940154309707&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7270 12.5 inch Laptop (Core i7 6th Gen/8 GB (Up to 16)/256 GB SSD/Windows 10 Pro/MS Office/HD Display/Integrated Graphics)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B08RS8BSND/ref=sr_1_130?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-130</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 AMD Ryzen-7 3700U 15.6 inches FHD AG Display Laptop (1920 x 1080, LED, / 8GB / 512 SSD / Vega Graphics / Windows 10 + MSO/ Soft Mint, 1.83 kg) D560332WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Display-Graphics-D560332WIN9S/dp/B08X4PJG61/ref=sr_1_131?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-131</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JVT4LTW/ref=sr_1_132?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-132</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) Touchscreen 1920x1080 Laptop (16 GB/1 TB HDD/Windows/MS Office Pro 2019 /AMD/Black/2.26 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-6820HQ-Touchscreen-1920x1080-Latitude/dp/B08P5VJ53L/ref=sr_1_133?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-133</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 39.62 cm (15.6-inch) FHD Laptop (11th Gen Core i5-1135G7/4GB/1TB HDD+256GB SSD/Windows 10 Home + MS Office/Intel HD Graphics),Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-15-6-inch-i5-1135G7/dp/B08QN1RFSS/ref=sr_1_129?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-129</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell E7250 Latitude 12.5 Inches Laptop (5th Gen Intel Core i7 - 5600U /8 GB/512 GB SSD/Windows 10 Pro), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-E7250-Latitude-Inches/dp/B07V4SX92S/ref=sr_1_130?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-130</t>
+  </si>
+  <si>
+    <t>Dell XPS 9500 Intel I7-10750H 15.6 inches UHD+ IPS AG 3840 x 2400, LED Business Laptop (16 GB/512 SSD/Nvidia 4 GB GTX Graphics/ Windows 10 + MS Office/ Silver, 2.05 kg) D560031WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Laptop-I7-10750H-Graphics-D560031WIN9S/dp/B08QMBPZYJ/ref=sr_1_131?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-131</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5406 11th Gen 35.52 cm (14 inch) FHD 2in1 Laptop(i5-1135G7 / 8GB / 512 SSD / 2GB MX 330/Win 10/ MS Office 19/ Active Pen/Titan Grey),D560368WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-14inch-i5-1135G7-D560368WIN9S/dp/B08QM83552/ref=sr_1_132?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-132</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 10th Gen Intel Core i3-1005G1 15.6 inches (1920 X 1080), LED FHD Laptop (4GB/1TB HDD + 256GB SSD/Windows 10 Home + MS Office/HD Graphics, Soft Mint)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-15-6-inch-i3-1005G1/dp/B08LH338FN/ref=sr_1_133?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-133</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office /Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Windows-Graphics-Latitude/dp/B09JVWF9LC/ref=sr_1_134?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-134</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (16GB RAM /1TB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GSCN32R/ref=sr_1_135?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-135</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 Intel 11th Gen i5-1135G7 15 inches FHD Business Laptop (4GB/1TB HDD/256GB SSD/Windows 10 + MS Office/2.18kg), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-15-inch-i5-1135G7/dp/B08QCM3QY6/ref=sr_1_136?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-136</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) 1366x768 Laptop (8 GB/500 GB HDD/Windows/MS Office Pro 2019 /AMD/Black/2.47 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-15-inch-Graphics/dp/B08L7P3D6Y/ref=sr_1_137?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-137</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) Touchscreen 1920x1080 Laptop (8 GB/500 GB HDD/Windows/MS Office Pro 2019 /AMD/Black/2.27 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-6820HQ-Touchscreen-1920x1080-Latitude/dp/B08P5V5NCJ/ref=sr_1_138?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-138</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (4GB RAM/500GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JV82KFS/ref=sr_1_139?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-139</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E5470 Intel Core i5 6th Gen 14 inches 1366x768 Laptop (16GB Upgradable to 32/512 GB SSD/Windows 10 Pro/MS Office 2019/More than 4 GB HD Graphics, Backlit Keyboard, Black, 1.5 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-LATITUDE-Upgradable-Graphics-Keyboard/dp/B08TX418LK/ref=sr_1_140?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964253&amp;sprefix=de%2Caps%2C597&amp;sr=8-140</t>
+  </si>
+  <si>
+    <t>(Renewed) HP ZBook 15 G3 Mobile Workstation - 15.6" - Core i7 (6700HQ) - 16 GB RAM - 3TB SSD : BLUETOOTH : 2GB DEDICATED GRAPHIC : NUMERIC KEYBOARD</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg10_1?ie=UTF8&amp;adId=A09861392W98KV7OI806G&amp;url=%2FRenewed-HP-ZBook-Mobile-Workstation%2Fdp%2FB091231BNJ%2Fref%3Dsr_1_145_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964256%26sprefix%3Dde%252Caps%252C597%26sr%3D8-145-spons%26psc%3D1&amp;qualifier=1641964256&amp;id=8434897710389350&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (8GB RAM/512GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09LSCJ64R/ref=sr_1_146?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-146</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (12GB RAM/512GB SSD/Windows 10 Pro/MS Office/ Intel HD graphics/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-TOUCHSCREEN-graphics-Latitude/dp/B09LSBF7BB/ref=sr_1_147?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-147</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (16GB RAM /1TB SSD/Windows 10 Pro/MS Office 2019/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B09752NVNF/ref=sr_1_148?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-148</t>
+  </si>
+  <si>
+    <t>DELL XPS 9300 13.3-inch (33.78 cms) FHD Laptop (10th Gen Core i5-1035G1/8GB/512GB SSD/Windows 10 Home Plus &amp; MS Office 365- 1Yr Subscription/Intel HD Graphics), Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/9300-13-3-inch-i5-1035G1-Subscription-Graphics/dp/B08BZPD3TP/ref=sr_1_149?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-149</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7270 12.5-inch Laptop (Core I5 6th Gen/8GB/256 GB SSD/Windows 10/MS Office Pro 2019/Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-E7270-12-5-inch-Integrated/dp/B083Y2JVV5/ref=sr_1_145?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-145</t>
+  </si>
+  <si>
+    <t>Dell XPS 15 (2021) i7-11800H Touch Screen Laptop / 16GB / 512GB SSD/ NVIDIA RTX 3050 Ti 4GB GDDR6 / Win 10 + MSO / 15.6" UHD+ AR 500 nits / Backlit KB + FPR / Platinum Silver (XPS 9510, D560054WIN9S)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-11800H-Backlit-Platinum-D560054WIN9S/dp/B09FXGJCYC/ref=sr_1_146?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-146</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7400 Intel 11th Gen Core i5-1135G7 14 inches FHD Touch Laptop (8GB/512GB SSD/2GB NVIDIA GeForce MX350 Graphics/Windows 10 Home + MS Office, Silver, 1.3 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-14-inch-i5-1135G7-Graphics/dp/B08MQ4CVQF/ref=sr_1_147?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-147</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 5th Gen Core i5 5300U 14-Inch (35.56 cms) Laptop (8 GB/256 GB SSD/Windows 10/Intel HD Graphics/Black/), Latitude E5450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-E5450-Graphics/dp/B07SN9P55R/ref=sr_1_148?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-148</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410 10th Generation Intel Core i7- 10510U 14 inches Windows10 Pro, 8GB, 1TB HDD, Fingerprint Reader in Power Button, ADP + NBD, 1.8 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-3410-Windows10Pro-Fingerprint/dp/B08LKGTT23/ref=sr_1_149?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-149</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7 6600U 14-Inch (35.56 cms) 1366x768 Laptop (8 GB/1 TB HDD/Windows 10/MS Office Pro 2019 /Intel HD Graphics 520/Black/1.26 Kg), Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-1366x768-Graphics-Latitude/dp/B08RSPBM7C/ref=sr_1_150?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-150</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7470 14-inch Laptop (Core i7 6th Gen/8GB(Up to 16)/500 GB HDD/Windows 10/MS Office Pro 2019/Intel Graphics), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-14-inch-Graphics/dp/B08RRV5KMJ/ref=sr_1_151?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-151</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3401 14 inch (35.56 cms) FHD Anti Glare 2 Side Narrow Border Display Laptop (10th gen i3-1005G1 / 4GB / 1TB / Integrated Graphics/ Win 10 + MSO/ Black) D552124WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1005G1-Integrated-Graphics-D552124WIN9BE/dp/B08HYZ2HQR/ref=sr_1_152?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-152</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM /1TB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5DJ384/ref=sr_1_154?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-154</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 5th Gen 14 Inch(35.56 cms) 1366 x 768 HD Laptop (8GB RAM/1TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/Intel Graphics ,Black/1.7Kg) Latitude E7450</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09JVPWH86/ref=sr_1_155?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-155</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5F46BV/ref=sr_1_156?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964256&amp;sprefix=de%2Caps%2C597&amp;sr=8-156</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Intel Core i7 6700HQ 15.6-Inch (39.62 cms) 1920 X 1080 Laptop (16 GB/1.5 TB SSD/Windows/Intel HD Graphics &amp; Nvidia 1000m/Grey/2.7 Kg), Zbook 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg11_1?ie=UTF8&amp;adId=A09971311N10UHLPGKKSY&amp;url=%2FRenewed-HP-15-6-Inch-Graphics-Zbook%2Fdp%2FB0912CZSHP%2Fref%3Dsr_1_161_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964259%26sprefix%3Dde%252Caps%252C597%26sr%3D8-161-spons%26psc%3D1&amp;qualifier=1641964259&amp;id=1317953916433997&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (8GB RAM/1TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TTTDGW/ref=sr_1_162?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-162</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) Touchscreen 1920x1080 Laptop (16 GB/256 GB SSD/Windows/MS Office Pro 2019 /AMD/Black/2.10 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-FHD-Touch-Graphics/dp/B08LPS6Q3Q/ref=sr_1_163?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-163</t>
+  </si>
+  <si>
+    <t>Dell G7 7500 15.6 Inch FHD Gaming Laptop (10th Gen i7-10750H /16 GB/1TB SSD/Nvidia RTX 2060 6GB Graphics/ 1Yr Premium / Win 10 + MS Office H&amp;S 2019) + Alienware Advanced Gaming Mouse - AW558</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-10750H-Graphics-Alienware-Advanced/dp/B091RT2PMS/ref=sr_1_164?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-164</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7 6600U 14-Inch (35.56 cms) 1366x768 Laptop (8 GB/256 GB SSD/Windows/MS Office /Intel HD Graphics 520/Black/2 Kg), Lattitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B08MV63TGS/ref=sr_1_165?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-165</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM /1TB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/1.18Kg,Black) Latitude E7480</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09LS9MSMQ/ref=sr_1_161?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-161</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) 1366x768 Laptop (8 GB/256 GB SSD/Windows/MS Office Pro 2019 /AMD/Black/2 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-15-inch-Graphics/dp/B08L7Q384C/ref=sr_1_162?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-162</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (4GB RAM/500GB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ 1.5Kg,Black) Latitude E5470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B098TVSCGG/ref=sr_1_163?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-163</t>
+  </si>
+  <si>
+    <t>Dell G7 7500 15.6 Inch FHD Gaming Laptop (10th Gen i7-10750H /16 GB/1TB SSD/Nvidia RTX 2060 6GB Graphics/ 1Yr Premium / Win 10 + MS Office H&amp;S 2019) + Alienware Stereo Gaming Headset 310H, AW310H</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-10750H-Graphics-Premium-Alienware/dp/B091RJS2NP/ref=sr_1_164?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-164</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5408 5000 Series 10th Gen Intel Core i5-1035G1 14 inches FHD Business Laptop (8 GB/512 SSD/2 GB NVIDIA MX 330 Graphics/Windows 10 Home + MS Office/Pebble, 1.4kg) D560210WIN9SE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-1035G1-Graphics-D560210WIN9SE/dp/B08GYQF3CH/ref=sr_1_167?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-167</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 5-5600H Gaming Laptop, 8GB DDR4, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 4GB, 15.6 inches FHD, Backlit KB Orange, Phantom Grey (G15 5515, D560542WIN9W), 2.57kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-5-5600H-G15-5515-D560542WIN9W/dp/B09F3QCF42/ref=sr_1_168?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-168</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (32GB RAM/512GB SSD/Windows 10 Pro/MS Office//Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5FB5FR/ref=sr_1_169?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-169</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7-6820HQ 15-Inch (38.1 cms) 1366x768 Laptop (16 GB/500 GB HDD/Windows/MS Office Pro 2019 /AMD/Black/1.9 Kg), Latitude E5570</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i7-6820HQ-1366x768-Latitude-E5570/dp/B08S7LQNLG/ref=sr_1_170?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-170</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 12.5-Inch (31.75 cms) Full HD (1920 X 1080) Pixels Ultra Light Laptop (4 GB/256 GB SSD/Windows 10 Pro/1.26 Kg), E7270-i5-4-256</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-12-5-Inch-Windows-E7270-i5-4-256/dp/B08XWLJXFX/ref=sr_1_171?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-171</t>
+  </si>
+  <si>
+    <t>Dell G5 SE 5505 15.6" FHD IPS Gaming Laptop, AMD Ryzen 5 4600H 8GB RAM, 512GB SSD, AMD Radeon RX 5600M 6GB Graphics, Windows 10 Home, Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Gaming-Laptop-Graphics-Windows/dp/B08MQFBYYQ/ref=sr_1_172?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964259&amp;sprefix=de%2Caps%2C597&amp;sr=8-172</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Intel Core i7 6700HQ 15.6-Inch (39.62 cms) 1920 X 1080 Laptop (32 GB/1TB SSD/Windows/Intel HD Graphics &amp; Nvidia 1000m/Grey/2.7 Kg), Zbook 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg12_1?ie=UTF8&amp;adId=A09956592AR8PX5LFZ4HI&amp;url=%2FRenewed-HP-15-6-Inch-Graphics-Zbook%2Fdp%2FB0912CL6PC%2Fref%3Dsr_1_177_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964261%26sprefix%3Dde%252Caps%252C597%26sr%3D8-177-spons%26psc%3D1&amp;qualifier=1641964262&amp;id=4490172065892880&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 7th Gen12.5 Inch(31.75 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7280</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B097YZ1WWC/ref=sr_1_178?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-178</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5491 10th Gen Intel i3-10110U 14 inches /4GB/1TB HDD + 256GB SSD/Windows 10/Integrated Graphics Laptop, Platinum Silver, 1.86kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5491-i3-10110U-Integrated/dp/B08C5FKLN1/ref=sr_1_179?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-179</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7 6600U 12.5-Inch (31.75 cms) 1080p Full HD Laptop (16 GB/512 GB SSD/Windows/Intel(R) HD Graphics 520/Black/2.40 Kg), E7270</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-E7270-Graphics/dp/B07RCJTYLM/ref=sr_1_180?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-180</t>
+  </si>
+  <si>
+    <t>Dell Vostro 5415 14.0 inches FHD Display Laptop (AMD R5-5500U / 8GB / 512GB SSD / Integrated Graphics / Windows 10 + MSO / Backlit KB + FPR / Titan Grey Color) D552192WIN9S, Titan Gray, 1.43kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Vostro-5415-Integrated-D552192WIN9S/dp/B097SZ3P33/ref=sr_1_181?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-181</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 6th Gen Core i7 6600U 14-Inch (35.56 cms) 1366x768 Laptop (8 GB/512 GB SSD/Windows/MS Office /Intel HD Graphics 520/Black/1.99 Kg), Lattitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B08MV1NJ2Y/ref=sr_1_177?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-177</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (8GB RAM/512GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5DDCQP/ref=sr_1_178?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-178</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (8GB RAM/1TB HDD/Windows 10 Pro/MS Office 2019/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B0974XBX64/ref=sr_1_179?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-179</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (8GB RAM/1TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GSC3P1L/ref=sr_1_180?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-180</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Laptop Zbook Studio Ultraslim 2.1KG Intel Core i7-6820HQ Processor , 64 GB Ram &amp; 256 GB SSD, 15.6 Inches with Nvidia 8GB Graphics with HD Screen Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg12_1?ie=UTF8&amp;adId=A10391503JN795QPCDFFE&amp;url=%2FHP-Ultraslim-i7-6820HQ-Processor-Graphics%2Fdp%2FB09MZCX16G%2Fref%3Dsr_1_181_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964261%26sprefix%3Dde%252Caps%252C597%26sr%3D8-181-spons%26psc%3D1&amp;qualifier=1641964262&amp;id=4490172065892880&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GSBW32B/ref=sr_1_182?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-182</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3593 15.6 inches FHD Laptop (Intel 10th Gen i3-1005G1/4GB/1TB HDD/Windows 10 + MS Office/Integrated Graphics/Black) D560236WIN9B, 2.02kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-3593-15-6-inch-Integrated-D560236WIN9B/dp/B08DXPGS83/ref=sr_1_183?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-183</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i7 6th Gen 14.Inch(35.6 cms) (1920 x 1080)FHD TOUCHSCREEN Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics /1.18Kg,Black) Latitude E7470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-TOUCHSCREEN-Integrated-Graphics-Latitude/dp/B09J5G1JF6/ref=sr_1_184?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-184</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 9380 8th Generation Intel Core i7-8565U Processor 13.3 inches 4K UHD Touch Display Laptop 2019 with 8GB RAM, 512GB SSD, Webcam, HDMI, Wireless, Bluetooth, Windows 10 (Black, 2.1318824 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/2019_Dell-Generation-Processor-Fingerprint-Bluetooth/dp/B07ZMRSZ7H/ref=sr_1_185?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-185</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7240 4th Gen Intel Core i5 12.5 inches Laptop (8GB/512GB SSD/Windows 10/Integrated Graphics, 1.8 kg) - Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-12-5-inch-Integrated-Graphics/dp/B08DV4MBVC/ref=sr_1_186?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-186</t>
+  </si>
+  <si>
+    <t>Dell Vostro 3401 35.56 cm (14") FHD Anti Glare Display Laptop / i3-1005G1 / 4GB / 1TB + 256GB SSD/ Integrated Graphics / 1 Yr NBD / Win 10 + Office H&amp;S/ Black) D552127WIN9DE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i3-1005G1-Integrated-Graphics-D552127WIN9DE/dp/B08MQ9KNGR/ref=sr_1_187?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-187</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude 14 inch (35.56 cm) HD Business Laptop(Core i5 3rd Gen/4 GB RAM/320 GB/Webcam/Wifi/Bluetooth 4.0/USB 3.0/Windows 10 Pro/MS Office 19/Pan India Warranty)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-Business-Bluetooth-Warranty/dp/B09GYGTF7M/ref=sr_1_188?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-188</t>
+  </si>
+  <si>
+    <t>Dell Latitude 3410 || i7-10510U || 14 inch FHD (1920 x 1080) Anti-Glare with Embedded Touch Display || 1TB HDD || 8GB RAM || Integrated Graphics || No Operating System (DOS) || 3 Years Warranty</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-3410-Anti-Glare-Integrated/dp/B08WCMCBNL/ref=sr_1_189?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964261&amp;sprefix=de%2Caps%2C597&amp;sr=8-189</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Intel Core i7 6700HQ 15.6-Inch (39.62 cms) 1920 X 1080 Laptop (128 GB/3 TB SSD/Windows/Intel HD Graphics &amp; Nvidia 1000m/Grey/2.7 Kg), Zbook 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg13_1?ie=UTF8&amp;adId=A09957152G0LZUE6Z76GS&amp;url=%2FRenewed-HP-15-6-Inch-Graphics-Zbook%2Fdp%2FB09127TPG6%2Fref%3Dsr_1_193_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964264%26sprefix%3Dde%252Caps%252C597%26sr%3D8-193-spons%26psc%3D1&amp;qualifier=1641964264&amp;id=7732759681526399&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>Dell XPS 9305 13.3 inches FHD Display Thin &amp; Light Laptop (Intel i5-1135G7 / 16GB / 512GB SSD / Integrated Graphics / Windows 10 + MSO / Backlit KB + FPR / Silver) D560053WIN9S, 1.16kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-XPS-9305-Integrated-D560053WIN9S/dp/B097C35Y77/ref=sr_1_194?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-194</t>
+  </si>
+  <si>
+    <t>Dell New Latitude 3410 35.56 cm (14") Core i3 10th Gen || 4GB || 1 TB || DOS-Ubantu || 1 Year ADP+NBD Dell Warranty || 35.56 cm (14 ") Screen Size || Without Bag</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-3410-Core-10th/dp/B08KJ9D2HD/ref=sr_1_195?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-195</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 Intel 11th Gen i5-1135G7 15 inches FHD Laptop (8GB/1TB HDD/256GB SSD/Windows 10 + MS Office/2GB Graphics/Windows 10 Home/ Black)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-i5-1135G7-Graphics/dp/B08QTNM585/ref=sr_1_196?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-196</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E5440 Intel Core i5 4th Gen 14 inches HD Business Laptop (16GB RAM /1TB HDD/Windows 10 Pro/MS Office 2019/More than 4 GB Integrated Graphics, Black, 2.2 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Integrated-Graphics/dp/B09414Z1ZG/ref=sr_1_197?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-197</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 AMD Ryzen-5 3500U 15 inches FHD AG Display Laptop (8GB/512 SSD/Vega Graphics/Windows 10 + MS Office H&amp;S 2019), Soft Mint, 1.96 kg, D560341WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Graphics-Warranty-D560341WIN9S/dp/B08HYXNRSL/ref=sr_1_193?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-193</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 AMD Ryzen 3 3250U 15.6 inches FHD Business Laptop, 8GB/1TB HDD/Windows 10/MS Office 2019/Radeon Vega Graphics - Black, 1.83 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-15-6-inch-Laptop-Graphics/dp/B08R9VSSM5/ref=sr_1_194?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-194</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7490 14 inches Laptop (10th Gen Intel Core i5-10210U/8GB/512GB SSD/Windows 10 + Microsoft Office/NVidia 2GB MX250 Graphics), Silver, 1.32kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Inspiron-7490-i5-10210U-Microsoft-Graphics/dp/B0842Z99KY/ref=sr_1_195?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-195</t>
+  </si>
+  <si>
+    <t>Dell Gaming G15 5510, 15.6 Inch RTX 3060 Gaming Laptop Full HD - Intel Core i7-10870H, 16GB DDR4 RAM, 512GB SSD, NVIDIA GeForce RTX 3060 6GB GDDR6, Windows 10 Home - Grey</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Gaming-5510-15-6-Laptop/dp/B08QLFFCJ4/ref=sr_1_196?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-196</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) i5-10500H Gaming Laptop, 16GB, 512GB SSD, Win 10 + MS Office, NVIDIA GTX 1650 4GB Graphics, 15.6" (39.61 cms) FHD Display, Backlit KB Orange, Dark Shadow Grey (G15 5510, D560606WIN9B)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10500H-G15-5510-D560606WIN9B/dp/B09F3QDFQQ/ref=sr_1_197?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-197</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Ultrabook-LATITUDE-Upgradable-Graphics/dp/B09F4C42MS/ref=sr_1_198?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-198</t>
+  </si>
+  <si>
+    <t>Dell G5 5500 Gaming Laptop / Intel Core i5-10th / 8GB RAM / 512GB SSD / Nvidia 1650TI 4GB Graphics / Windows 10 SL / Microsoft Office / 15.6" Display /1 Year Warranty</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-i5-10th-Graphics-Microsoft-Warranty/dp/B07CD3MRZD/ref=sr_1_199?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-199</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 5th Gen Core i3 14.5-Inch (36.83 cms) 1366x768 Laptop (8 GB/1 TB/Windows 10/MS Office /Intel/Black/2.70 Kg), DellLatitude E5450_cr</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-14-5-Inch-1366x768-DellLatitude-E5450_cr/dp/B08RRBK3PW/ref=sr_1_200?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-200</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5518 Intel 11th Gen Core i5-11300H 15.6 inches FHD Laptop 8GB RAM/512GB SSD/2GB NVIDIA MX450 Graphics/Windows 10 + MS Office (Platinum Silver, 1.75 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5518-i5-11300H-Graphics/dp/B094H3LCBK/ref=sr_1_201?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-201</t>
+  </si>
+  <si>
+    <t>Dell Gaming-G7 7590 9th Gen Intel Core i7-9750H 15.6 inches FHD Laptop/16GB/512GB SSD/Windows 10 + MS Office/8GB NVIDIA 2070 Graphics/Abyss (Grey, 2.5 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Gaming-G7-7590-15-6-inch-i7-9750H/dp/B07XZH6TYB/ref=sr_1_202?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-202</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 39.62 cm (15.6") FHD Display Laptop (i3-1115G4 / 4GB / 256GB SSD / Integrated Graphics / Win10 + MSO / Accent Black) D560492WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-Integrated-D560492WIN9BE/dp/B097SZMNQH/ref=sr_1_203?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-203</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 15.6 inches FHD Display Laptop (Intel i3-1005G1/ 8GB/ 1TB/ Windows 10 + MSO/ Integrated Graphics/ Accent Black) D560420WIN9B, 1.8kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-Integrated-D560420WIN9B/dp/B094Y5YJ1P/ref=sr_1_204?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964264&amp;sprefix=de%2Caps%2C597&amp;sr=8-204</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Intel Core i7 6700HQ 15.6-Inch (39.62 cms) 1920 X 1080 Laptop (128 GB/2 TB SSD/Windows/Intel HD Graphics &amp; Nvidia 1000m/Grey/2.7 Kg), Zbook 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg14_1?ie=UTF8&amp;adId=A0985315A5O8QL5UQ5BM&amp;url=%2FRenewed-HP-15-6-Inch-Graphics-Zbook%2Fdp%2FB09127DDZH%2Fref%3Dsr_1_209_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964267%26sprefix%3Dde%252Caps%252C597%26sr%3D8-209-spons%26psc%3D1&amp;qualifier=1641964267&amp;id=4051261234446081&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Intel 4th Gen Core i5 14-Inch (35.56 cms) 1366x768 Laptop (4 GB/240 GB/Windows 10/Integrated Graphics/Gray/2 kg), E5440-i5-4 GB-240 GB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Latitude-E5440-i5-4-GB-240-GB-Integrated/dp/B07N95H32F/ref=sr_1_210?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-210</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (16GB RAM/512GB SSD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GSCL61S/ref=sr_1_211?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-211</t>
+  </si>
+  <si>
+    <t>Dell XPS 9380 8th Gen Intel Core i7-8565U 13.3 inches 4K UHD, LED Laptop (16GB/512GB SSD/Windows 10 Home/HD Graphics, Gold, 1.1 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/9380-13-3-inch-i7-8565U-Windows-Graphics/dp/B07XP43GGJ/ref=sr_1_212?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-212</t>
+  </si>
+  <si>
+    <t>Dell G7 7500 15.6inch FHD 300 Hz Display Gaming Laptop (10th Gen i9-10885H / 16 GB / 1TB SSD / NVIDIA RTX 2070 8GB Graphics / 1Yr Premium Warranty / Win 10 + MS Office H&amp;S 2019) D560233WIN9B, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/15-6inch-i9-10885H-Graphics-Warranty-D560233WIN9B/dp/B08HYPJDLD/ref=sr_1_213?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-213</t>
+  </si>
+  <si>
+    <t>DELL Inspiron 3493 14" (35.56cms) HD Thin &amp; Light Laptop (10th Gen i3-1005G1/4GB/1TB HDD/Win 10 + MS Office/Intel HD Graphics/Silver) D560193WIN9SE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Inspiron-3493-i3-1005G1-Graphics-D560193WIN9SE/dp/B08D6Y52PS/ref=sr_1_209?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-209</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3505 15.6" FHD AG Display Laptop (R3-3250U/ 8GB DDR4/ 256GB SSD/ Win 10 + MS Office/ Radeon Graphics/ Soft Mint Color) D560486WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3505-R3-3250U-D560486WIN9S/dp/B099X41XHY/ref=sr_1_210?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-210</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5518 39.62 cm (15.6") FHD Display Laptop (11th Gen i5-11300H / 8GB / 512GB SSD / NVIDIA MX450 2GB Graphics / Win 10 + MSO / Backlit KB / Platinum Silver) D560453WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5518-i5-11300H-D560453WIN9S/dp/B093H9XGPQ/ref=sr_1_211?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-211</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Laptop Zbook Studio Ultraslim 2.1KG Intel Core i7-6820HQ Processor , 64 GB Ram &amp; 128 GB SSD, 15.6 Inches with Nvidia 8GB Graphics with HD Screen Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg14_1?ie=UTF8&amp;adId=A10365622J460P84BJSDV&amp;url=%2FHP-Ultraslim-i7-6820HQ-Processor-Graphics%2Fdp%2FB09MZBTMJV%2Fref%3Dsr_1_213_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964267%26sprefix%3Dde%252Caps%252C597%26sr%3D8-213-spons%26psc%3D1&amp;qualifier=1641964267&amp;id=4051261234446081&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 11th Gen Intel Core i5-1135G7 15.6 inches FHD, LED Laptop (8GB/512GB SSD/Windows 10 + MS Office 2019, Accent Black, 1.83 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-15-6-inch-i5-1135G7/dp/B091N845WT/ref=sr_1_214?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-214</t>
+  </si>
+  <si>
+    <t>(Renewed) DELL Inspiron 7490 14-inch Laptop (10th Gen Core i5-10210U/8GB/512GB SSD/Window 10 + Microsoft Office/NVidia 2GB MX250 Graphics), Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Inspiron-i5-10210U-Microsoft-Graphics/dp/B08CNQ15X4/ref=sr_1_215?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-215</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E5440 14-Inch Laptop (Core i5 4th Gen/8GB RAM(Upgradable to 16)/512GB SSD/Windows 10 Pro/MS Office 2019/More than 4 GB Intel Integrated Graphics), Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Latitude-Upgradable-Integrated-Graphics/dp/B094151TQC/ref=sr_1_216?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-216</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 39.62 cm (15.6" )FHD Display Laptop (i5-1135G7 / 8GB / 1TB HDD + 256GB SSD / Integrated Graphics / Win 10 + MSO / Backlit KB / Soft Mint Color) D560412WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-1135G7-Integrated-D560412WIN9S/dp/B093T2SC3W/ref=sr_1_217?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-217</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Intel 2nd Gen Core i5 14 inches 1366x768 Business Laptop (4 GB/250 GB/Windows 7 Professional OEM COA/HD Graphics 3000/Greyish Silver/1.80 kg), E6420</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/REFURBISHED-Dell-E6420-Discontinued-Manufacturer/dp/B07HR5Z6Y1/ref=sr_1_218?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-218</t>
+  </si>
+  <si>
+    <t>Dell G3 3500 Gaming Laptop 15.6-inch (39.62 cms) FHD 120 Hz Display (10th Gen Core i5-10300H/8GB/1TB + 256GB SSD/Win 10/4GB NVIDIA1650 Ti Graphics/Eclipse Black) +Dell Pro Slim Backpack 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6-inch-i5-10300H-NVIDIA1650-Graphics/dp/B09BBHS6CY/ref=sr_1_219?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-219</t>
+  </si>
+  <si>
+    <t>Dell 15 (2021) AMD Ryzen 7-5800H Gaming Laptop, 16GB, 512GB SSD, Windows 10 + MS Office, NVIDIA RTX 3050 Ti 4GB, 15.6 inches FHD, Backlit KB Orange, Platinum Silver (G15 5515, D560544WIN9W), 2.57kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Platinum-G15-5515-D560544WIN9W/dp/B09F3S46J2/ref=sr_1_220?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-220</t>
+  </si>
+  <si>
+    <t>Dell XPS 9570 8th Gen Intel Core i7-8750H 15.6 inches, Full HD 1920x1080, LED Laptop (8GB/256 GB SSD/Windows 10/MS Office/NVIDIA GeForce GTX 1050Ti 4GB Graphics), Silver, 1.75 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/9570-15-6-inch-Gen-Core-i7-8750H-Graphics/dp/B07GR86R4D/ref=sr_1_221?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964267&amp;sprefix=de%2Caps%2C597&amp;sr=8-221</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Intel Core i7 6700HQ 15.6-Inch (39.62 cms) 1920 X 1080 Laptop (96 GB/512 GB SSD/Windows/Intel HD Graphics &amp; Nvidia 1000m/Grey/2.7 Kg), Zbook 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg15_1?ie=UTF8&amp;adId=A09972872UZKK7B4NPMSW&amp;url=%2FRenewed-HP-15-6-Inch-Graphics-Zbook%2Fdp%2FB0911RVP29%2Fref%3Dsr_1_225_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964270%26sprefix%3Dde%252Caps%252C597%26sr%3D8-225-spons%26psc%3D1&amp;qualifier=1641964270&amp;id=4646776292237837&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Inspiron 5518 15.6" FHD Display Laptop (11th Gen i5-11300H / 8GB / 512GB SSD / NVIDIA MX450 2GB Graphics / Win 10 + MSO / Backlit KB / Platinum Silver) D560453WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-11300H-Graphics-D560453WIN9S/dp/B09825SY1R/ref=sr_1_226?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-226</t>
+  </si>
+  <si>
+    <t>Dell G3 3500 Gaming Intel 10th Gen Core i5-10300H 15.6 inches LCD FHD Laptop 1920x1080 (8GB/1TB + 256GB SSD/Windows 10 Home/4GB NVIDIA 1650 Graphics), Eclipse Black, 2.3 kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6-inch-i5-10300H-Windows-Graphics/dp/B08BZR11HM/ref=sr_1_227?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-227</t>
+  </si>
+  <si>
+    <t>Dell VOSTRO 3405 14 inches HD Anti Glare Laptop (AMD Ryzen-3 3250U / 4 GB / 1TB / Vega Graphics / 1 Yr NBD / Windows 10 + MSO / Black/ 1.83Kg) D552134WIN9BE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/VOSTRO-14inch-Ryzen-3-Graphics-D552134WIN9BE/dp/B08HQY7WH4/ref=sr_1_228?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-228</t>
+  </si>
+  <si>
+    <t>Dell XPS 9310 13.4" UHD+ Touch Display Laptop (i5-1135G7 / 16GB / 512GB SSD / Integrated Graphics / Win10 + MSO / Backlit KB + FPR / Silver) D560052WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-XPS-9310-Integrated-D560052WIN9S/dp/B097SYN9VT/ref=sr_1_229?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-229</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E7480 Intel Core i5 - 7200U Processor 7th Gen, 8 GB Ram &amp; 512 GB SSD, 14.1 Inches Touch Screen (Ultra Slim &amp; Light 1.58KG) Notebook Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E7480/dp/B092S8SPXP/ref=sr_1_225?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-225</t>
+  </si>
+  <si>
+    <t>Dell G3 3500 Gaming Laptop 15.6 inches FHD 120 Hz Display (10th Gen Intel Core i5-10300H/8GB/512GB SSD/Windows 10 Home/MS Office/4GB NVIDIA1650 Ti Graphics/Eclipse Black) D560254WIN9BL</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-3500-15-6-inch-NVIDIA1650-D560254WIN9BL/dp/B08PS7WSBJ/ref=sr_1_226?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-226</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (16GB RAM /1TB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GSC7TJ8/ref=sr_1_227?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-227</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3501 15.6" FHD Display Laptop (i3-1115G4 / 4GB / 512GB SSD / Integrated Graphics / Win 10 + MSO / Backlit KB / Soft Mint) D560444WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-3501-Integrated-D560444WIN9S/dp/B093HCS6PR/ref=sr_1_228?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-228</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch (35.6 cms) (1366 x 768) Laptop (4GB RAM/500GB HDD/Windows 10 Pro/MS Office/ Intel HD Integrated Graphics/ Black/1.4Kg,Black) Latitude 3470</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Integrated-Graphics-Latitude/dp/B09GS91S2J/ref=sr_1_229?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-229</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5515 39.62 cm (15.6") FHD AG 250nits Display Laptop (AMD Lucienne R5 5500U / 8GB / 512GB SSD / AMD Lucienne Graphic / Win 10 + MSO / Backlit KB + FPR / Silver) D560459WIN9SE</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5515-Lucienne-D560459WIN9SE/dp/B097C2D9QD/ref=sr_1_230?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-230</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 3593 Intel 10th Gen Ci5-1035G1 15.6 inches, 1920x1080, LED Laptop (4GB/512GB SSD/Windows 10/HD Graphics, Platinum Silver, 2.2 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Inspiron-3593-15-6-inch-Ci5-1035G1-Graphics/dp/B07ZG5XH2V/ref=sr_1_231?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-231</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7000 Series Intel Core i5 11th Gen 14.5 inches Notebook with 8 GB DDR4, 512 GB SSD, Nvidia MX 350 2 GB Graphics, Windows 10 Home + Office 2019, QHD+ IPS AG Display (Silver, 1.29 kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-Graphics-Windows-Display/dp/B08NXTSVBP/ref=sr_1_232?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-232</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 7400 36.83 cm (14.5") QHD+ IPS AG Display Laptop (Ci5-1135G7 / 16GB 4267MHz / 512GB SSD / Nvidia MX350 Graphics / Win 10 + MSO / Backlit KB with FPR / Silver) D560448WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-7400-Ci5-1135G7-D560448WIN9S/dp/B095S8LS63/ref=sr_1_233?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-233</t>
+  </si>
+  <si>
+    <t>Dell XPS 9305 13.3 FHD Display Laptop (i5-1135G7 / 16GB / 512GB SSD / Integrated Graphics / 1Yr Premium Plus Warranty / Win 10 + MSO / Backlit KB + FPR / Silver) D560051WIN9S (XPS 13 9305)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-XPS-9305-Integrated-D560051WIN9S/dp/B095S9DZZ1/ref=sr_1_234?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-234</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E7480 Intel Core i5 - 7200U Processor 7th Gen, 8 GB Ram &amp; 1TB SSD, 14.1 Inches Touch Screen (Ultra Slim &amp; Light 1.58KG) Notebook Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E7480/dp/B092S8QPHJ/ref=sr_1_235?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-235</t>
+  </si>
+  <si>
+    <t>Dell Inspiron 5418 35.56 cm (14") FHD Display Laptop (11th Gen Ci5-11300H / 8GB / 512GB SSD / Integrated Graphics / Win 10 + MSO / Backlit KB/ Platinum Silver) D560454WIN9S</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-5418-Ci5-11300H-D560454WIN9S/dp/B093HBNPDJ/ref=sr_1_236?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964270&amp;sprefix=de%2Caps%2C597&amp;sr=8-236</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Laptop Zbook Studio Ultraslim 2.1KG Intel Core i7-6820HQ Processor , 4 GB Ram &amp; 4TB SSD, 15.6 Inches with Nvidia 8GB Graphics with HD Screen Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_btf_aps_sr_pg15_1?ie=UTF8&amp;adId=A10393062NAXE620VL7IQ&amp;url=%2FHP-Ultraslim-i7-6820HQ-Processor-Graphics%2Fdp%2FB09MZG3KNK%2Fref%3Dsr_1_237_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964270%26sprefix%3Dde%252Caps%252C597%26sr%3D8-237-spons%26psc%3D1&amp;qualifier=1641964270&amp;id=4646776292237837&amp;widgetName=sp_btf</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Intel Core i7 6700HQ 15.6-Inch (39.62 cms) 1920 X 1080 Laptop (32 GB/512 GB SSD/Windows/Intel HD Graphics &amp; Nvidia 1000m/Grey/2.7 Kg), Zbook 15</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_atf_next_aps_sr_pg16_1?ie=UTF8&amp;adId=A099581516GSAFQBYM3IR&amp;url=%2FRenewed-HP-15-6-Inch-Graphics-Zbook%2Fdp%2FB0912DW9Y9%2Fref%3Dsr_1_241_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964273%26sprefix%3Dde%252Caps%252C597%26sr%3D8-241-spons%26psc%3D1&amp;qualifier=1641964273&amp;id=3731018757146647&amp;widgetName=sp_atf_next</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell INSPIRON 5408 Intel 10th Gen Core i5-1035G1 14-Inch (35.56 cms) 1920 x 1080 Laptop (8/512 GB SSD/Windows 10 Home/MS Office /NVIDIA GeForce MX330/Pebble/2.20 Kg),</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-1035G1-Graphics-D560210WIN9SE/dp/B08LMSDTDX/ref=sr_1_242?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-242</t>
+  </si>
+  <si>
+    <t>Dell XPS 13 7390 10th Generation Intel Core i5-1021U 13.3 inches 8GB RAM, 512GB SSD, Full HD Windows 10 Laptop, 1.32kg</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Generation-Corei5-1021U-Windows-Laptop/dp/B07SGD54KK/ref=sr_1_243?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-243</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5-4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (16GB RAM/128GB SSD &amp; 1TB HDD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B097PL7VX8/ref=sr_1_244?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-244</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Laptop E5480 Intel Core i5 7th Gen. - 7300u Processor, 32 GB Ram &amp; 1 TB SSD, 14.1 Inches Full HD Screen Notebook Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E5480/dp/B091N2PXVJ/ref=sr_1_245?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-245</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude E7240 4th Gen Intel Core i5-4210U 12.5 inches HD 1366 X 768 Pixels Laptop (4 GB/256 GB SSD/DOS/HD Graphics 4400/Silver/3 Kg)</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-WEBCAM/dp/B08L5527XY/ref=sr_1_241?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-241</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Latitude Intel 4th Gen Core i5 14-Inch (35.56 cms) 1366x768 Laptop (4 GB/512 GB/Windows 10/Intel Integrated Graphics/Silver/2.40 Kg), E6440-i5-4 GB-512 GB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-E6440-i5-4-GB-512-GB-Integrated/dp/B07LBGC67Z/ref=sr_1_243?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-243</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Inspiron 5402 Laptop|i5-1135G7|8GB DDR4|512GB SSD|Win 10 HSL|NVIDIA MX330 2GB|14" FHD|Backlit|Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-Inspiron-i5-1135G7-14/dp/B091T6RJPH/ref=sr_1_244?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-244</t>
+  </si>
+  <si>
+    <t>(Renewed) HP Laptop Zbook Studio Ultraslim 2.1KG Intel Core i7-6820HQ Processor , 4 GB Ram &amp; 512 GB SSD, 15.6 Inches with Nvidia 8GB Graphics with HD Screen Computer</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/gp/slredirect/picassoRedirect.html/ref=pa_sp_mtf_aps_sr_pg16_1?ie=UTF8&amp;adId=A10394621EZRXXEM8US35&amp;url=%2FHP-Ultraslim-i7-6820HQ-Processor-Graphics%2Fdp%2FB09MZBY192%2Fref%3Dsr_1_245_sspa%3Fcrid%3D36EGYGP2OB6DA%26keywords%3Ddell%2Bi7%2Blaptop%26qid%3D1641964273%26sprefix%3Dde%252Caps%252C597%26sr%3D8-245-spons%26psc%3D1&amp;qualifier=1641964273&amp;id=3731018757146647&amp;widgetName=sp_mtf</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i5-4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (16GB RAM/128GB SSD &amp; 2TB HDD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics 4600/2.1Kg,Silver) Latitude E6440</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B097PLFY4B/ref=sr_1_246?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-246</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel Core i3 4005U 14-Inch (35.56 cms) HD (1366 X 768) Pixels Laptop (16 GB/256 GB SSD/Windows 10 Pro/Intel/Grey/1.75 Kg), 3340-i3-16-256</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-14-Inch-Windows-3340-i3-16-256/dp/B08SMN32JT/ref=sr_1_247?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-247</t>
+  </si>
+  <si>
+    <t>Dell XPS 9570 15.6" FHD 8th Gen Intel Core i7-8750H, 16GB DDR4, 512GB Solid State Drive, Windows 10 Home,4GB Graphics</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-XPS-9570-i7-8750H-Graphics/dp/B07J1Z5WNK/ref=sr_1_248?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-248</t>
   </si>
   <si>
     <t>(Renewed) Dell Latitude Laptop E5480 Intel Core i5 7th Gen. - 7300u Processor, 16 GB Ram &amp; 2TB GB SSD, 14.1 Inches Full HD Screen Notebook Computer</t>
   </si>
   <si>
-    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E5480/dp/B091N2WV24/ref=sr_1_293?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-293</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3510 Intel Core i3-10110U /4GB/1TB/UBUNTU/ 39.62 cm (15.6 INCH )Screen/1 Year Warranty</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Dell-Latitude-3510-i3-10110U-Warranty/dp/B08B9X82C6/ref=sr_1_289?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-289</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Latitude E6440-i5-16 GB-320 GB 14-inch Laptop (4th Gen Core i5/16GB/320GB/Windows 10/Integrated Graphics), Silver</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Dell-E6440-i5-16-GB-320-GB-Integrated/dp/B07LB4NZYL/ref=sr_1_290?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-290</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Latitude Laptop E7480 Intel Core i5 - 7200U Processor 7th Gen, 16 GB Ram &amp; 2TB SSD, 14.1 Inches Touch Screen (Ultra Slim &amp; Light 1.58KG) Notebook Computer</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E7480/dp/B092S94YCP/ref=sr_1_291?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-291</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Latitude Laptop E7480 Intel Core i5 - 7200U Processor 7th Gen, 32 GB Ram &amp; 256 GB SSD, 14.1 Inches Touch Screen (Ultra Slim &amp; Light 1.58KG) Notebook Computer</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E7480/dp/B092S8GGRG/ref=sr_1_292?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-292</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Intel Core i5-4th Gen 14 Inch(35.56 cms) 1366x768 HD Laptop (8GB RAM/256GB SSD/Windows 10 Pro/MS Office/Intel Integrated HD Graphics 4400/1.9Kg,Silver) Latitude E7440</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Dell-1366x768-Integrated-Graphics-Latitude/dp/B09B52F871/ref=sr_1_295?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-295</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Latitude E6420-i5-4 GB-512 GB 14-inch Laptop (2nd Gen Core i5/4GB//Windows 7/Integrated Graphics), Greyish Silver</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Dell-E6420-i5-4-GB-512-GB-Integrated/dp/B07LB4XT5T/ref=sr_1_296?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-296</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Latitude E5270 Laptop (CORE I5 6TH GEN/4GB/500GB/WEBCAM/12.5'' NO TOUCH/Windows 10 Home)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Renewed-Dell-Latitude-E5270-Windows/dp/B08XVV5BLP/ref=sr_1_297?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-297</t>
-  </si>
-  <si>
-    <t>Dell Latitude 3490 8th Gen Intel Core i5-8250U 14 inches HD LED Business Laptop (4GB/1TB/Windows 10 Home Single Language/2 GB AMD Radeon Graphics, Black, 1.72 kg)</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Latitude-3490-i5-8250U-Language-Graphics/dp/B07PXLPWQM/ref=sr_1_298?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-298</t>
-  </si>
-  <si>
-    <t>(Renewed) Dell Intel Core i5 6th Gen 14-Inch(35.56 cms) 1366 x 768 HD Laptop (32GB RAM /1TB HDD/Windows 10 Pro/MS Office/Intel HD Integrated Graphics/ Black/1.5Kg,Black) Latitude E5480</t>
-  </si>
-  <si>
-    <t>https://www.amazon.in/Dell-Integrated-Graphics-Latitude-E5480/dp/B09M4271RP/ref=sr_1_299?keywords=dell+laptop+i5&amp;qid=1641909341&amp;sprefix=dell+laptop%2Caps%2C394&amp;sr=8-299</t>
+    <t>https://www.amazon.in/Renewed-Dell-Latitude-Laptop-E5480/dp/B091N2WV24/ref=sr_1_249?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-249</t>
+  </si>
+  <si>
+    <t>Dell Latitude DEL3400-2 8th Gen Intel Core i5-8265U 14 inches, 1366x768 LED Business Laptop (4GB/1TB/Windows 10 Pro/Integrated Graphics) - Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Latitude-DEL3400-2-i5-8265U-Integrated-Graphics/dp/B07XG518ZC/ref=sr_1_250?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-250</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell G7 7500 15.6inch FHD 300 Hz Display Gaming Laptop (10th Gen i9-10885H / 16 GB / 1TB SSD / NVIDIA RTX 2070 8GB Graphics / 1Yr Premium Warranty / Win 10 + MS Office H&amp;S 2019) D560233WIN9B, Black</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-15-6inch-i9-10885H-Graphics-D560233WIN9B/dp/B09774SL5T/ref=sr_1_251?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-251</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Inspiron 5490 Laptop|i5-10210U|8GB DDR4|512GB SSD|Win 10 HSL|Integrated Graphics|14+ FHD|Backlit|Silver</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Dell-Inspiron-i5-10210U-Integrated-14/dp/B091SZ39YN/ref=sr_1_252?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-252</t>
+  </si>
+  <si>
+    <t>(Renewed) Dell Intel 7th Gen Intel Core i5 14.1-Inch (35.81 cms) Full HD (1920 X 1080) Pixels Laptop (16 GB/1 TB SSD/Windows 10 Pro/1.74 Kg), E5480-i5-16-1TB</t>
+  </si>
+  <si>
+    <t>https://www.amazon.in/Renewed-Dell-14-1-Inch-Windows-E5480-i5-16-1TB/dp/B091N1RW8J/ref=sr_1_253?crid=36EGYGP2OB6DA&amp;keywords=dell+i7+laptop&amp;qid=1641964273&amp;sprefix=de%2Caps%2C597&amp;sr=8-253</t>
   </si>
 </sst>
 </file>
@@ -487,7 +2185,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34880EB8-6A55-4EFD-8AF3-09841DC1A317}">
-  <dimension ref="A1:B19"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -503,130 +2201,2522 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>4</v>
       </c>
       <c r="B3" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>25</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>6</v>
+        <v>29</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>9</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>2</v>
+        <v>35</v>
       </c>
       <c r="B19" t="s">
-        <v>3</v>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>45</v>
+      </c>
+      <c r="B24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>50</v>
+      </c>
+      <c r="B27" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>52</v>
+      </c>
+      <c r="B28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>54</v>
+      </c>
+      <c r="B29" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>56</v>
+      </c>
+      <c r="B30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>58</v>
+      </c>
+      <c r="B31" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>62</v>
+      </c>
+      <c r="B33" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B34" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>66</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>47</v>
+      </c>
+      <c r="B36" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>69</v>
+      </c>
+      <c r="B37" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>71</v>
+      </c>
+      <c r="B38" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>73</v>
+      </c>
+      <c r="B39" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>75</v>
+      </c>
+      <c r="B40" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>77</v>
+      </c>
+      <c r="B41" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>79</v>
+      </c>
+      <c r="B42" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>81</v>
+      </c>
+      <c r="B43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>83</v>
+      </c>
+      <c r="B44" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>85</v>
+      </c>
+      <c r="B45" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>87</v>
+      </c>
+      <c r="B46" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>89</v>
+      </c>
+      <c r="B47" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>91</v>
+      </c>
+      <c r="B48" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>94</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>96</v>
+      </c>
+      <c r="B51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>98</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>100</v>
+      </c>
+      <c r="B53" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>104</v>
+      </c>
+      <c r="B55" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>9</v>
+      </c>
+      <c r="B56" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>107</v>
+      </c>
+      <c r="B57" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>109</v>
+      </c>
+      <c r="B58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>113</v>
+      </c>
+      <c r="B60" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>115</v>
+      </c>
+      <c r="B61" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>117</v>
+      </c>
+      <c r="B62" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>119</v>
+      </c>
+      <c r="B63" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>121</v>
+      </c>
+      <c r="B64" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>123</v>
+      </c>
+      <c r="B65" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>125</v>
+      </c>
+      <c r="B66" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>127</v>
+      </c>
+      <c r="B67" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>131</v>
+      </c>
+      <c r="B69" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>137</v>
+      </c>
+      <c r="B72" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>139</v>
+      </c>
+      <c r="B73" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>141</v>
+      </c>
+      <c r="B74" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>145</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>147</v>
+      </c>
+      <c r="B77" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>121</v>
+      </c>
+      <c r="B78" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>150</v>
+      </c>
+      <c r="B79" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>152</v>
+      </c>
+      <c r="B80" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>154</v>
+      </c>
+      <c r="B81" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>125</v>
+      </c>
+      <c r="B82" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>157</v>
+      </c>
+      <c r="B83" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>161</v>
+      </c>
+      <c r="B85" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>163</v>
+      </c>
+      <c r="B86" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>165</v>
+      </c>
+      <c r="B87" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>167</v>
+      </c>
+      <c r="B88" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>169</v>
+      </c>
+      <c r="B89" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>129</v>
+      </c>
+      <c r="B90" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>131</v>
+      </c>
+      <c r="B91" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>133</v>
+      </c>
+      <c r="B92" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>135</v>
+      </c>
+      <c r="B93" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>137</v>
+      </c>
+      <c r="B94" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>139</v>
+      </c>
+      <c r="B95" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>141</v>
+      </c>
+      <c r="B96" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>143</v>
+      </c>
+      <c r="B97" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>145</v>
+      </c>
+      <c r="B98" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>147</v>
+      </c>
+      <c r="B99" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>121</v>
+      </c>
+      <c r="B100" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>150</v>
+      </c>
+      <c r="B101" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>152</v>
+      </c>
+      <c r="B102" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>154</v>
+      </c>
+      <c r="B103" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>125</v>
+      </c>
+      <c r="B104" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>157</v>
+      </c>
+      <c r="B105" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>159</v>
+      </c>
+      <c r="B106" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>161</v>
+      </c>
+      <c r="B107" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>163</v>
+      </c>
+      <c r="B108" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>165</v>
+      </c>
+      <c r="B109" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>167</v>
+      </c>
+      <c r="B110" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>169</v>
+      </c>
+      <c r="B111" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>193</v>
+      </c>
+      <c r="B112" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>195</v>
+      </c>
+      <c r="B113" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>197</v>
+      </c>
+      <c r="B114" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>199</v>
+      </c>
+      <c r="B115" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>201</v>
+      </c>
+      <c r="B116" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>203</v>
+      </c>
+      <c r="B117" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>205</v>
+      </c>
+      <c r="B118" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>207</v>
+      </c>
+      <c r="B119" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>209</v>
+      </c>
+      <c r="B120" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>211</v>
+      </c>
+      <c r="B121" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>37</v>
+      </c>
+      <c r="B122" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>214</v>
+      </c>
+      <c r="B123" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>216</v>
+      </c>
+      <c r="B124" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>218</v>
+      </c>
+      <c r="B125" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>220</v>
+      </c>
+      <c r="B126" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>222</v>
+      </c>
+      <c r="B127" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>224</v>
+      </c>
+      <c r="B128" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>226</v>
+      </c>
+      <c r="B129" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>228</v>
+      </c>
+      <c r="B130" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>230</v>
+      </c>
+      <c r="B131" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>232</v>
+      </c>
+      <c r="B132" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>234</v>
+      </c>
+      <c r="B133" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>236</v>
+      </c>
+      <c r="B134" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>238</v>
+      </c>
+      <c r="B135" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>240</v>
+      </c>
+      <c r="B136" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>242</v>
+      </c>
+      <c r="B137" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>244</v>
+      </c>
+      <c r="B138" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>246</v>
+      </c>
+      <c r="B139" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>248</v>
+      </c>
+      <c r="B140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>250</v>
+      </c>
+      <c r="B141" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>252</v>
+      </c>
+      <c r="B142" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>254</v>
+      </c>
+      <c r="B143" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>256</v>
+      </c>
+      <c r="B144" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>258</v>
+      </c>
+      <c r="B145" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>260</v>
+      </c>
+      <c r="B146" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>262</v>
+      </c>
+      <c r="B147" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>264</v>
+      </c>
+      <c r="B148" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>266</v>
+      </c>
+      <c r="B149" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>268</v>
+      </c>
+      <c r="B150" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>270</v>
+      </c>
+      <c r="B151" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>272</v>
+      </c>
+      <c r="B152" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>274</v>
+      </c>
+      <c r="B153" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>276</v>
+      </c>
+      <c r="B154" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>278</v>
+      </c>
+      <c r="B155" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>280</v>
+      </c>
+      <c r="B156" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>282</v>
+      </c>
+      <c r="B157" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>284</v>
+      </c>
+      <c r="B158" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>286</v>
+      </c>
+      <c r="B159" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>288</v>
+      </c>
+      <c r="B160" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>292</v>
+      </c>
+      <c r="B162" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>294</v>
+      </c>
+      <c r="B163" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>296</v>
+      </c>
+      <c r="B164" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>300</v>
+      </c>
+      <c r="B166" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>302</v>
+      </c>
+      <c r="B167" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>304</v>
+      </c>
+      <c r="B168" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>306</v>
+      </c>
+      <c r="B169" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>308</v>
+      </c>
+      <c r="B170" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>310</v>
+      </c>
+      <c r="B171" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>312</v>
+      </c>
+      <c r="B172" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>232</v>
+      </c>
+      <c r="B173" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>315</v>
+      </c>
+      <c r="B174" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>317</v>
+      </c>
+      <c r="B175" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>319</v>
+      </c>
+      <c r="B176" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>321</v>
+      </c>
+      <c r="B177" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>323</v>
+      </c>
+      <c r="B178" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>325</v>
+      </c>
+      <c r="B179" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>327</v>
+      </c>
+      <c r="B180" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>329</v>
+      </c>
+      <c r="B181" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>331</v>
+      </c>
+      <c r="B182" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>333</v>
+      </c>
+      <c r="B183" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>335</v>
+      </c>
+      <c r="B184" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>337</v>
+      </c>
+      <c r="B185" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>339</v>
+      </c>
+      <c r="B186" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>341</v>
+      </c>
+      <c r="B187" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>343</v>
+      </c>
+      <c r="B188" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>345</v>
+      </c>
+      <c r="B189" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>347</v>
+      </c>
+      <c r="B190" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>349</v>
+      </c>
+      <c r="B191" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>351</v>
+      </c>
+      <c r="B192" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>353</v>
+      </c>
+      <c r="B193" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>355</v>
+      </c>
+      <c r="B194" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>357</v>
+      </c>
+      <c r="B195" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>359</v>
+      </c>
+      <c r="B196" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>361</v>
+      </c>
+      <c r="B197" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>363</v>
+      </c>
+      <c r="B198" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>365</v>
+      </c>
+      <c r="B199" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>367</v>
+      </c>
+      <c r="B200" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>369</v>
+      </c>
+      <c r="B201" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>371</v>
+      </c>
+      <c r="B202" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>373</v>
+      </c>
+      <c r="B203" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>375</v>
+      </c>
+      <c r="B204" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>377</v>
+      </c>
+      <c r="B205" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>379</v>
+      </c>
+      <c r="B206" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>381</v>
+      </c>
+      <c r="B207" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>383</v>
+      </c>
+      <c r="B208" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>385</v>
+      </c>
+      <c r="B209" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>387</v>
+      </c>
+      <c r="B210" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>389</v>
+      </c>
+      <c r="B211" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>391</v>
+      </c>
+      <c r="B212" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>393</v>
+      </c>
+      <c r="B213" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>395</v>
+      </c>
+      <c r="B214" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>397</v>
+      </c>
+      <c r="B215" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>399</v>
+      </c>
+      <c r="B216" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>401</v>
+      </c>
+      <c r="B217" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>403</v>
+      </c>
+      <c r="B218" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>405</v>
+      </c>
+      <c r="B219" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>407</v>
+      </c>
+      <c r="B220" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>409</v>
+      </c>
+      <c r="B221" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>411</v>
+      </c>
+      <c r="B222" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>413</v>
+      </c>
+      <c r="B223" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>415</v>
+      </c>
+      <c r="B224" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>417</v>
+      </c>
+      <c r="B225" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>419</v>
+      </c>
+      <c r="B226" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>421</v>
+      </c>
+      <c r="B227" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>423</v>
+      </c>
+      <c r="B228" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>425</v>
+      </c>
+      <c r="B229" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>427</v>
+      </c>
+      <c r="B230" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>429</v>
+      </c>
+      <c r="B231" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>431</v>
+      </c>
+      <c r="B232" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>433</v>
+      </c>
+      <c r="B233" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>435</v>
+      </c>
+      <c r="B234" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>437</v>
+      </c>
+      <c r="B235" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>439</v>
+      </c>
+      <c r="B236" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>441</v>
+      </c>
+      <c r="B237" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A238" t="s">
+        <v>443</v>
+      </c>
+      <c r="B238" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" t="s">
+        <v>445</v>
+      </c>
+      <c r="B239" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A240" t="s">
+        <v>447</v>
+      </c>
+      <c r="B240" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A241" t="s">
+        <v>449</v>
+      </c>
+      <c r="B241" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" t="s">
+        <v>451</v>
+      </c>
+      <c r="B242" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A243" t="s">
+        <v>453</v>
+      </c>
+      <c r="B243" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A244" t="s">
+        <v>455</v>
+      </c>
+      <c r="B244" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" t="s">
+        <v>457</v>
+      </c>
+      <c r="B245" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A246" t="s">
+        <v>459</v>
+      </c>
+      <c r="B246" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A247" t="s">
+        <v>461</v>
+      </c>
+      <c r="B247" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" t="s">
+        <v>463</v>
+      </c>
+      <c r="B248" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A249" t="s">
+        <v>465</v>
+      </c>
+      <c r="B249" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A250" t="s">
+        <v>467</v>
+      </c>
+      <c r="B250" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" t="s">
+        <v>469</v>
+      </c>
+      <c r="B251" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A252" t="s">
+        <v>471</v>
+      </c>
+      <c r="B252" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" t="s">
+        <v>473</v>
+      </c>
+      <c r="B253" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" t="s">
+        <v>475</v>
+      </c>
+      <c r="B254" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A255" t="s">
+        <v>477</v>
+      </c>
+      <c r="B255" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A256" t="s">
+        <v>479</v>
+      </c>
+      <c r="B256" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" t="s">
+        <v>481</v>
+      </c>
+      <c r="B257" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A258" t="s">
+        <v>107</v>
+      </c>
+      <c r="B258" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A259" t="s">
+        <v>484</v>
+      </c>
+      <c r="B259" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" t="s">
+        <v>486</v>
+      </c>
+      <c r="B260" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A261" t="s">
+        <v>488</v>
+      </c>
+      <c r="B261" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A262" t="s">
+        <v>490</v>
+      </c>
+      <c r="B262" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" t="s">
+        <v>492</v>
+      </c>
+      <c r="B263" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A264" t="s">
+        <v>494</v>
+      </c>
+      <c r="B264" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A265" t="s">
+        <v>496</v>
+      </c>
+      <c r="B265" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" t="s">
+        <v>498</v>
+      </c>
+      <c r="B266" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A267" t="s">
+        <v>500</v>
+      </c>
+      <c r="B267" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A268" t="s">
+        <v>502</v>
+      </c>
+      <c r="B268" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" t="s">
+        <v>504</v>
+      </c>
+      <c r="B269" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A270" t="s">
+        <v>506</v>
+      </c>
+      <c r="B270" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A271" t="s">
+        <v>508</v>
+      </c>
+      <c r="B271" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" t="s">
+        <v>510</v>
+      </c>
+      <c r="B272" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A273" t="s">
+        <v>512</v>
+      </c>
+      <c r="B273" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A274" t="s">
+        <v>514</v>
+      </c>
+      <c r="B274" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" t="s">
+        <v>516</v>
+      </c>
+      <c r="B275" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A276" t="s">
+        <v>518</v>
+      </c>
+      <c r="B276" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A277" t="s">
+        <v>520</v>
+      </c>
+      <c r="B277" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" t="s">
+        <v>522</v>
+      </c>
+      <c r="B278" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A279" t="s">
+        <v>524</v>
+      </c>
+      <c r="B279" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A280" t="s">
+        <v>526</v>
+      </c>
+      <c r="B280" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" t="s">
+        <v>528</v>
+      </c>
+      <c r="B281" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A282" t="s">
+        <v>530</v>
+      </c>
+      <c r="B282" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A283" t="s">
+        <v>532</v>
+      </c>
+      <c r="B283" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" t="s">
+        <v>534</v>
+      </c>
+      <c r="B284" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A285" t="s">
+        <v>536</v>
+      </c>
+      <c r="B285" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A286" t="s">
+        <v>538</v>
+      </c>
+      <c r="B286" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" t="s">
+        <v>540</v>
+      </c>
+      <c r="B287" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A288" t="s">
+        <v>542</v>
+      </c>
+      <c r="B288" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A289" t="s">
+        <v>544</v>
+      </c>
+      <c r="B289" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" t="s">
+        <v>546</v>
+      </c>
+      <c r="B290" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A291" t="s">
+        <v>548</v>
+      </c>
+      <c r="B291" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A292" t="s">
+        <v>550</v>
+      </c>
+      <c r="B292" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" t="s">
+        <v>552</v>
+      </c>
+      <c r="B293" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A294" t="s">
+        <v>554</v>
+      </c>
+      <c r="B294" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A295" t="s">
+        <v>556</v>
+      </c>
+      <c r="B295" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" t="s">
+        <v>558</v>
+      </c>
+      <c r="B296" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A297" t="s">
+        <v>560</v>
+      </c>
+      <c r="B297" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A298" t="s">
+        <v>562</v>
+      </c>
+      <c r="B298" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" t="s">
+        <v>564</v>
+      </c>
+      <c r="B299" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A300" t="s">
+        <v>566</v>
+      </c>
+      <c r="B300" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A301" t="s">
+        <v>568</v>
+      </c>
+      <c r="B301" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" t="s">
+        <v>570</v>
+      </c>
+      <c r="B302" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A303" t="s">
+        <v>572</v>
+      </c>
+      <c r="B303" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A304" t="s">
+        <v>574</v>
+      </c>
+      <c r="B304" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" t="s">
+        <v>576</v>
+      </c>
+      <c r="B305" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A306" t="s">
+        <v>578</v>
+      </c>
+      <c r="B306" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A307" t="s">
+        <v>580</v>
+      </c>
+      <c r="B307" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" t="s">
+        <v>582</v>
+      </c>
+      <c r="B308" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A309" t="s">
+        <v>584</v>
+      </c>
+      <c r="B309" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A310" t="s">
+        <v>586</v>
+      </c>
+      <c r="B310" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" t="s">
+        <v>588</v>
+      </c>
+      <c r="B311" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A312" t="s">
+        <v>590</v>
+      </c>
+      <c r="B312" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A313" t="s">
+        <v>592</v>
+      </c>
+      <c r="B313" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" t="s">
+        <v>594</v>
+      </c>
+      <c r="B314" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A315" t="s">
+        <v>596</v>
+      </c>
+      <c r="B315" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A316" t="s">
+        <v>598</v>
+      </c>
+      <c r="B316" t="s">
+        <v>599</v>
       </c>
     </row>
   </sheetData>
